--- a/Offline/BusinessManagement/Website/Antech/UAT-DefectReport-BusinessSite.xlsx
+++ b/Offline/BusinessManagement/Website/Antech/UAT-DefectReport-BusinessSite.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\Website\Antech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB9021B-727D-4DF9-9356-3CF764F484BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{625BDF24-DBA1-4DDA-8D3C-C8F54B639896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -670,7 +670,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9825038" y="481016"/>
+          <a:off x="9601200" y="485778"/>
           <a:ext cx="1133475" cy="681038"/>
           <a:chOff x="9910131" y="-777448"/>
           <a:chExt cx="5634183" cy="2736215"/>
@@ -853,7 +853,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9825038" y="1538288"/>
+          <a:off x="9601200" y="1737360"/>
           <a:ext cx="1133475" cy="681038"/>
           <a:chOff x="9910131" y="-777448"/>
           <a:chExt cx="5634183" cy="2736215"/>
@@ -1392,13 +1392,13 @@
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.06640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:6" ht="28.5" x14ac:dyDescent="0.85">
+    <row r="6" spans="2:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="35" t="s">
         <v>24</v>
       </c>
@@ -1407,8 +1407,8 @@
       <c r="E6" s="35"/>
       <c r="F6" s="35"/>
     </row>
-    <row r="7" spans="2:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1423,7 +1423,7 @@
         <v>45323</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>4</v>
       </c>
@@ -1438,7 +1438,7 @@
         <v>45324</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="9" t="s">
         <v>2</v>
       </c>
@@ -1470,27 +1470,27 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I11" sqref="I11"/>
+      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="0.9296875" style="14" customWidth="1"/>
-    <col min="2" max="2" width="3.86328125" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.19921875" style="14" customWidth="1"/>
-    <col min="4" max="4" width="6.9296875" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.265625" style="14" customWidth="1"/>
-    <col min="6" max="6" width="6.6640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.06640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.19921875" style="14" customWidth="1"/>
-    <col min="10" max="10" width="32.59765625" style="14" customWidth="1"/>
-    <col min="11" max="11" width="21.06640625" style="14" customWidth="1"/>
-    <col min="12" max="16384" width="9.06640625" style="14"/>
+    <col min="1" max="1" width="0.88671875" style="14" customWidth="1"/>
+    <col min="2" max="2" width="3.88671875" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.88671875" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.21875" style="14" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" style="13" customWidth="1"/>
+    <col min="7" max="7" width="6.5546875" style="13" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.21875" style="14" customWidth="1"/>
+    <col min="10" max="10" width="32.5546875" style="14" customWidth="1"/>
+    <col min="11" max="11" width="21.109375" style="14" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="2:11" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:11" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="31" t="s">
         <v>7</v>
       </c>
@@ -1522,7 +1522,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="2:11" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B3" s="26">
         <v>1</v>
       </c>
@@ -1550,7 +1550,7 @@
       </c>
       <c r="K3" s="30"/>
     </row>
-    <row r="4" spans="2:11" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:11" ht="72" x14ac:dyDescent="0.3">
       <c r="B4" s="19">
         <v>2</v>
       </c>
@@ -1578,7 +1578,7 @@
       </c>
       <c r="K4" s="20"/>
     </row>
-    <row r="5" spans="2:11" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B5" s="19">
         <v>3</v>
       </c>
@@ -1606,7 +1606,7 @@
       </c>
       <c r="K5" s="21"/>
     </row>
-    <row r="6" spans="2:11" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B6" s="19">
         <v>4</v>
       </c>
@@ -1634,7 +1634,7 @@
       </c>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" spans="2:11" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B7" s="19">
         <v>5</v>
       </c>
@@ -1662,7 +1662,7 @@
       </c>
       <c r="K7" s="20"/>
     </row>
-    <row r="8" spans="2:11" ht="57" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B8" s="19">
         <v>6</v>
       </c>
@@ -1688,9 +1688,13 @@
       <c r="J8" s="16"/>
       <c r="K8" s="20"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B9" s="19"/>
-      <c r="C9" s="16"/>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B9" s="19">
+        <v>7</v>
+      </c>
+      <c r="C9" s="15">
+        <v>45324</v>
+      </c>
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>
       <c r="F9" s="17"/>
@@ -1700,7 +1704,7 @@
       <c r="J9" s="16"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B10" s="19"/>
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
@@ -1712,7 +1716,7 @@
       <c r="J10" s="16"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B11" s="19"/>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
@@ -1724,7 +1728,7 @@
       <c r="J11" s="16"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B12" s="19"/>
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
@@ -1736,7 +1740,7 @@
       <c r="J12" s="16"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B13" s="19"/>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
@@ -1748,7 +1752,7 @@
       <c r="J13" s="16"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B14" s="19"/>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
@@ -1760,7 +1764,7 @@
       <c r="J14" s="16"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B15" s="19"/>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
@@ -1772,7 +1776,7 @@
       <c r="J15" s="16"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B16" s="19"/>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
@@ -1784,7 +1788,7 @@
       <c r="J16" s="16"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B17" s="19"/>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
@@ -1796,7 +1800,7 @@
       <c r="J17" s="16"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B18" s="19"/>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
@@ -1808,7 +1812,7 @@
       <c r="J18" s="16"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B19" s="19"/>
       <c r="C19" s="16"/>
       <c r="D19" s="16"/>
@@ -1820,7 +1824,7 @@
       <c r="J19" s="16"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B20" s="19"/>
       <c r="C20" s="16"/>
       <c r="D20" s="16"/>
@@ -1832,7 +1836,7 @@
       <c r="J20" s="16"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B21" s="19"/>
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
@@ -1844,7 +1848,7 @@
       <c r="J21" s="16"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B22" s="19"/>
       <c r="C22" s="16"/>
       <c r="D22" s="16"/>
@@ -1856,7 +1860,7 @@
       <c r="J22" s="16"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B23" s="19"/>
       <c r="C23" s="16"/>
       <c r="D23" s="16"/>
@@ -1868,7 +1872,7 @@
       <c r="J23" s="16"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B24" s="19"/>
       <c r="C24" s="16"/>
       <c r="D24" s="16"/>
@@ -1880,7 +1884,7 @@
       <c r="J24" s="16"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B25" s="19"/>
       <c r="C25" s="16"/>
       <c r="D25" s="16"/>
@@ -1892,7 +1896,7 @@
       <c r="J25" s="16"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B26" s="19"/>
       <c r="C26" s="16"/>
       <c r="D26" s="16"/>
@@ -1904,7 +1908,7 @@
       <c r="J26" s="16"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B27" s="19"/>
       <c r="C27" s="16"/>
       <c r="D27" s="16"/>
@@ -1916,7 +1920,7 @@
       <c r="J27" s="16"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B28" s="19"/>
       <c r="C28" s="16"/>
       <c r="D28" s="16"/>
@@ -1928,7 +1932,7 @@
       <c r="J28" s="16"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B29" s="19"/>
       <c r="C29" s="16"/>
       <c r="D29" s="16"/>
@@ -1940,7 +1944,7 @@
       <c r="J29" s="16"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B30" s="19"/>
       <c r="C30" s="16"/>
       <c r="D30" s="16"/>
@@ -1952,7 +1956,7 @@
       <c r="J30" s="16"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B31" s="19"/>
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
@@ -1964,7 +1968,7 @@
       <c r="J31" s="16"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B32" s="19"/>
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
@@ -1976,7 +1980,7 @@
       <c r="J32" s="16"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B33" s="19"/>
       <c r="C33" s="16"/>
       <c r="D33" s="16"/>
@@ -1988,7 +1992,7 @@
       <c r="J33" s="16"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B34" s="19"/>
       <c r="C34" s="16"/>
       <c r="D34" s="16"/>
@@ -2000,7 +2004,7 @@
       <c r="J34" s="16"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B35" s="19"/>
       <c r="C35" s="16"/>
       <c r="D35" s="16"/>
@@ -2012,7 +2016,7 @@
       <c r="J35" s="16"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B36" s="19"/>
       <c r="C36" s="16"/>
       <c r="D36" s="16"/>
@@ -2024,7 +2028,7 @@
       <c r="J36" s="16"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B37" s="19"/>
       <c r="C37" s="16"/>
       <c r="D37" s="16"/>
@@ -2036,7 +2040,7 @@
       <c r="J37" s="16"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B38" s="19"/>
       <c r="C38" s="16"/>
       <c r="D38" s="16"/>
@@ -2048,7 +2052,7 @@
       <c r="J38" s="16"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B39" s="19"/>
       <c r="C39" s="16"/>
       <c r="D39" s="16"/>
@@ -2060,7 +2064,7 @@
       <c r="J39" s="16"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B40" s="19"/>
       <c r="C40" s="16"/>
       <c r="D40" s="16"/>
@@ -2072,7 +2076,7 @@
       <c r="J40" s="16"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B41" s="19"/>
       <c r="C41" s="16"/>
       <c r="D41" s="16"/>
@@ -2084,7 +2088,7 @@
       <c r="J41" s="16"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B42" s="19"/>
       <c r="C42" s="16"/>
       <c r="D42" s="16"/>
@@ -2096,7 +2100,7 @@
       <c r="J42" s="16"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B43" s="19"/>
       <c r="C43" s="16"/>
       <c r="D43" s="16"/>
@@ -2108,7 +2112,7 @@
       <c r="J43" s="16"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B44" s="19"/>
       <c r="C44" s="16"/>
       <c r="D44" s="16"/>
@@ -2120,7 +2124,7 @@
       <c r="J44" s="16"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B45" s="19"/>
       <c r="C45" s="16"/>
       <c r="D45" s="16"/>
@@ -2132,7 +2136,7 @@
       <c r="J45" s="16"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B46" s="19"/>
       <c r="C46" s="16"/>
       <c r="D46" s="16"/>
@@ -2144,7 +2148,7 @@
       <c r="J46" s="16"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B47" s="19"/>
       <c r="C47" s="16"/>
       <c r="D47" s="16"/>
@@ -2156,7 +2160,7 @@
       <c r="J47" s="16"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B48" s="19"/>
       <c r="C48" s="16"/>
       <c r="D48" s="16"/>
@@ -2168,7 +2172,7 @@
       <c r="J48" s="16"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B49" s="19"/>
       <c r="C49" s="16"/>
       <c r="D49" s="16"/>
@@ -2180,7 +2184,7 @@
       <c r="J49" s="16"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B50" s="19"/>
       <c r="C50" s="16"/>
       <c r="D50" s="16"/>
@@ -2192,7 +2196,7 @@
       <c r="J50" s="16"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B51" s="19"/>
       <c r="C51" s="16"/>
       <c r="D51" s="16"/>
@@ -2204,7 +2208,7 @@
       <c r="J51" s="16"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B52" s="19"/>
       <c r="C52" s="16"/>
       <c r="D52" s="16"/>
@@ -2216,7 +2220,7 @@
       <c r="J52" s="16"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B53" s="19"/>
       <c r="C53" s="16"/>
       <c r="D53" s="16"/>
@@ -2228,7 +2232,7 @@
       <c r="J53" s="16"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B54" s="19"/>
       <c r="C54" s="16"/>
       <c r="D54" s="16"/>
@@ -2240,7 +2244,7 @@
       <c r="J54" s="16"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B55" s="19"/>
       <c r="C55" s="16"/>
       <c r="D55" s="16"/>
@@ -2252,7 +2256,7 @@
       <c r="J55" s="16"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B56" s="19"/>
       <c r="C56" s="16"/>
       <c r="D56" s="16"/>
@@ -2264,7 +2268,7 @@
       <c r="J56" s="16"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="57" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B57" s="19"/>
       <c r="C57" s="16"/>
       <c r="D57" s="16"/>
@@ -2276,7 +2280,7 @@
       <c r="J57" s="16"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="58" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B58" s="19"/>
       <c r="C58" s="16"/>
       <c r="D58" s="16"/>
@@ -2288,7 +2292,7 @@
       <c r="J58" s="16"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="59" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B59" s="19"/>
       <c r="C59" s="16"/>
       <c r="D59" s="16"/>
@@ -2300,7 +2304,7 @@
       <c r="J59" s="16"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="60" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B60" s="19"/>
       <c r="C60" s="16"/>
       <c r="D60" s="16"/>
@@ -2312,7 +2316,7 @@
       <c r="J60" s="16"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="61" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B61" s="19"/>
       <c r="C61" s="16"/>
       <c r="D61" s="16"/>
@@ -2324,7 +2328,7 @@
       <c r="J61" s="16"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="62" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B62" s="19"/>
       <c r="C62" s="16"/>
       <c r="D62" s="16"/>
@@ -2336,7 +2340,7 @@
       <c r="J62" s="16"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="63" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B63" s="19"/>
       <c r="C63" s="16"/>
       <c r="D63" s="16"/>
@@ -2348,7 +2352,7 @@
       <c r="J63" s="16"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B64" s="19"/>
       <c r="C64" s="16"/>
       <c r="D64" s="16"/>
@@ -2360,7 +2364,7 @@
       <c r="J64" s="16"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B65" s="19"/>
       <c r="C65" s="16"/>
       <c r="D65" s="16"/>
@@ -2372,7 +2376,7 @@
       <c r="J65" s="16"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B66" s="19"/>
       <c r="C66" s="16"/>
       <c r="D66" s="16"/>
@@ -2384,7 +2388,7 @@
       <c r="J66" s="16"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B67" s="19"/>
       <c r="C67" s="16"/>
       <c r="D67" s="16"/>
@@ -2396,7 +2400,7 @@
       <c r="J67" s="16"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B68" s="19"/>
       <c r="C68" s="16"/>
       <c r="D68" s="16"/>
@@ -2408,7 +2412,7 @@
       <c r="J68" s="16"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B69" s="19"/>
       <c r="C69" s="16"/>
       <c r="D69" s="16"/>
@@ -2420,7 +2424,7 @@
       <c r="J69" s="16"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B70" s="19"/>
       <c r="C70" s="16"/>
       <c r="D70" s="16"/>
@@ -2432,7 +2436,7 @@
       <c r="J70" s="16"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B71" s="19"/>
       <c r="C71" s="16"/>
       <c r="D71" s="16"/>
@@ -2444,7 +2448,7 @@
       <c r="J71" s="16"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="72" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B72" s="22"/>
       <c r="C72" s="23"/>
       <c r="D72" s="23"/>

--- a/Offline/BusinessManagement/Website/Antech/UAT-DefectReport-BusinessSite.xlsx
+++ b/Offline/BusinessManagement/Website/Antech/UAT-DefectReport-BusinessSite.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\Website\Antech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{625BDF24-DBA1-4DDA-8D3C-C8F54B639896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB968F2A-4F7B-4BE9-B88A-87F126C30B16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="36">
   <si>
     <t>Created By</t>
   </si>
@@ -162,6 +162,12 @@
   </si>
   <si>
     <t>1. Visit: https://sites.google.com/view/anodiam</t>
+  </si>
+  <si>
+    <t>Home Page: Body</t>
+  </si>
+  <si>
+    <t>Delete the section as it is not required.</t>
   </si>
 </sst>
 </file>
@@ -476,7 +482,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -558,6 +564,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1120,6 +1129,136 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1424940</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>525780</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Group 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{578094E4-762B-A83B-4687-FB47562487DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="9715500" y="6332220"/>
+          <a:ext cx="1310640" cy="502920"/>
+          <a:chOff x="0" y="0"/>
+          <a:chExt cx="2298700" cy="937260"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="3" name="Picture 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D16D060-AB50-2E08-FE30-986B2C828853}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="2298700" cy="937260"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="Rectangle 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BDEDF53-915E-8688-EC12-51638BECDA0E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1000125" y="600075"/>
+            <a:ext cx="373380" cy="213360"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:endParaRPr lang="en-IN"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1470,7 +1609,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1688,19 +1827,29 @@
       <c r="J8" s="16"/>
       <c r="K8" s="20"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B9" s="19">
         <v>7</v>
       </c>
       <c r="C9" s="15">
         <v>45324</v>
       </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
+      <c r="D9" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="17">
+        <v>5</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>21</v>
+      </c>
       <c r="H9" s="17"/>
-      <c r="I9" s="16"/>
+      <c r="I9" s="16" t="s">
+        <v>33</v>
+      </c>
       <c r="J9" s="16"/>
       <c r="K9" s="20"/>
     </row>
@@ -2462,6 +2611,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Offline/BusinessManagement/Website/Antech/UAT-DefectReport-BusinessSite.xlsx
+++ b/Offline/BusinessManagement/Website/Antech/UAT-DefectReport-BusinessSite.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\Website\Antech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB968F2A-4F7B-4BE9-B88A-87F126C30B16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
     <sheet name="UAT Defects" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="91">
   <si>
     <t>Created By</t>
   </si>
@@ -50,9 +49,6 @@
   </si>
   <si>
     <t>SL #</t>
-  </si>
-  <si>
-    <t>Feature</t>
   </si>
   <si>
     <t>Bug Description</t>
@@ -169,11 +165,324 @@
   <si>
     <t>Delete the section as it is not required.</t>
   </si>
+  <si>
+    <t xml:space="preserve">a) Provide a login button on the header menu bar which should lead to the following url:
+https://www.anodiam.com/login
+</t>
+  </si>
+  <si>
+    <t>A Login/Register button to be designed inhouse.</t>
+  </si>
+  <si>
+    <t>Screen shot attached in file: "DefectImages.docx": Image-7.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>USE THIS SAME FONT STYLE (Font should be Oxygen) FOR WRITING ALL PAGE HEADERS, NO UNDERLINES, NO BOLD</t>
+  </si>
+  <si>
+    <t>All Pages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Screen shot attached in file: "DefectImages.docx": Image-8. </t>
+  </si>
+  <si>
+    <t>About Us Page</t>
+  </si>
+  <si>
+    <t>The tooltip text is moving up and down while scrolling for all buttons. We have no need for tooltip, remove them.</t>
+  </si>
+  <si>
+    <t>Screen shot attached in file: "DefectImages.docx": Image-9.</t>
+  </si>
+  <si>
+    <t>We do not need this part on home page, remove it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Visit: https://sites.google.com/view/anodiam  </t>
+  </si>
+  <si>
+    <t>1. Visit: https://sites.google.com/view/anodiam
+2. Inspect the body.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Visit: https://sites.google.com/view/anodiam.
+2. Place the cursor on any button.                                                                            </t>
+  </si>
+  <si>
+    <t>Screen shot attached in file: "DefectImages.docx": Image-10.</t>
+  </si>
+  <si>
+    <t>Courses Page: Contents</t>
+  </si>
+  <si>
+    <t>1. Visit: https://sites.google.com/view/anodiam
+2. Inspect the contents.</t>
+  </si>
+  <si>
+    <t>Screen shot attached in file: "DefectImages.docx": Image-11.</t>
+  </si>
+  <si>
+    <t>Home Page</t>
+  </si>
+  <si>
+    <t>We need to transform the courses to clickable cards. Which should lead to: https://www.anodiam.com/login</t>
+  </si>
+  <si>
+    <t>We need to reconsider this and finalize the contents.</t>
+  </si>
+  <si>
+    <t>Screen shot attached in file: "DefectImages.docx": Image-12.</t>
+  </si>
+  <si>
+    <t>To be deleted.</t>
+  </si>
+  <si>
+    <r>
+      <t>a)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Remove the underline from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Courses.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Do not bold it out. Font should be oxygen.</t>
+    </r>
+  </si>
+  <si>
+    <t>Courses Page: Header</t>
+  </si>
+  <si>
+    <t>1. Visit: https://sites.google.com/view/anodiam
+2. Go to Course page.</t>
+  </si>
+  <si>
+    <r>
+      <t>Make the para spacing uniform (Write the course name like “</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AI &amp; Data Science 
+                                        For Professionals</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Screen shot attached in file: "DefectImages.docx": Image-13.</t>
+  </si>
+  <si>
+    <t>All course images are to be changed.</t>
+  </si>
+  <si>
+    <t>Courses Page: Body</t>
+  </si>
+  <si>
+    <t>Courses Page: Images</t>
+  </si>
+  <si>
+    <t>Numberings 1,2,3 marked in red vertical rectangle to be deleted.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Delete the part (“Discounts are live….”) marked in red horizontal  rectangle.</t>
+    </r>
+  </si>
+  <si>
+    <t>Screen shot attached in file: "DefectImages.docx": Image-14.</t>
+  </si>
+  <si>
+    <r>
+      <t>Name should be changed to: "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Free Materials</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Visit: https://sites.google.com/view/anodiam
+2. Go to Galley page.</t>
+  </si>
+  <si>
+    <t>Contents should be youtube videos.</t>
+  </si>
+  <si>
+    <t>Contact Us page header to be written in normal case, brand font (Oxygen)</t>
+  </si>
+  <si>
+    <t>Gallery Page: Header</t>
+  </si>
+  <si>
+    <t>Gallery Page: Content</t>
+  </si>
+  <si>
+    <t>Contact us page: Header</t>
+  </si>
+  <si>
+    <t>1. Visit: https://sites.google.com/view/anodiam
+2. Go to Conatct Us page.</t>
+  </si>
+  <si>
+    <t>Call Us Anytime, Email Us, Reach Us at sections are to be removed.</t>
+  </si>
+  <si>
+    <t>Com</t>
+  </si>
+  <si>
+    <t>Contact us page: Contents</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Only this part to be kept. Visit Us should be changed to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Locate Us</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Screen shot attached in file: "DefectImages.docx": Image-15.</t>
+  </si>
+  <si>
+    <t>Screen shot attached in file: "DefectImages.docx": Image-16.</t>
+  </si>
+  <si>
+    <t>Screen shot attached in file: "DefectImages.docx": Image-17.</t>
+  </si>
+  <si>
+    <t>1. Visit: https://sites.google.com/view/anodiam
+2. Scroll down to footer.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     </t>
+  </si>
+  <si>
+    <t>a) Delete the quick link part which is marked in red square as it is not required.
+b) Give icons for address, mobile no. and email ID. Also turn them into hyperlinks so that clicking on them leads to the respective stuff.</t>
+  </si>
+  <si>
+    <t>e) Only two columns. Contacts &amp; Follow Us. Youtube Icon to be included.   
+f) Whatsapp icon looks smaller than the rest. Keep all of them uniformly sized.</t>
+  </si>
+  <si>
+    <t>c) Replace our app icon with playstore’s icon.
+d) Find a better theme color and design for the footer.</t>
+  </si>
+  <si>
+    <t>g) No need for the map icon at bottom marked in red 
+h) Adress should be: N-1/25 Patuli, Kolkata - 700094</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -185,13 +494,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -229,6 +531,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -482,7 +790,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -511,10 +819,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -523,7 +828,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -535,7 +840,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -550,23 +855,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="9"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="9"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -605,7 +916,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FD10B47-8A67-0A09-E879-0CAFC5970319}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4FD10B47-8A67-0A09-E879-0CAFC5970319}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -657,13 +968,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>28578</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1133475</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>709616</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -671,7 +982,7 @@
         <xdr:cNvPr id="5" name="Group 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3656FDDC-39E1-5271-2857-FFFD5A461694}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3656FDDC-39E1-5271-2857-FFFD5A461694}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -679,7 +990,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9601200" y="485778"/>
+          <a:off x="9715500" y="1400178"/>
           <a:ext cx="1133475" cy="681038"/>
           <a:chOff x="9910131" y="-777448"/>
           <a:chExt cx="5634183" cy="2736215"/>
@@ -690,7 +1001,7 @@
           <xdr:cNvPr id="6" name="Picture 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B0429C0-2B97-4BDF-A457-F7E6F3C3D15A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8B0429C0-2B97-4BDF-A457-F7E6F3C3D15A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -733,190 +1044,7 @@
           <xdr:cNvPr id="7" name="Oval 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1FDA964-338B-4218-B57F-0A8A356C0F7E}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="9910131" y="-740456"/>
-            <a:ext cx="1234441" cy="594040"/>
-          </a:xfrm>
-          <a:prstGeom prst="ellipse">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="28575">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-            <a:prstTxWarp prst="textNoShape">
-              <a:avLst/>
-            </a:prstTxWarp>
-            <a:noAutofit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>147637</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>119060</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1015682</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>410525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F957C2F-389A-C1BA-C0DC-266B145C75CA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10110787" y="2471735"/>
-          <a:ext cx="868045" cy="291465"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1133475</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>681038</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="12" name="Group 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{691215EF-95BB-403D-97C7-5970250B762A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="9601200" y="1737360"/>
-          <a:ext cx="1133475" cy="681038"/>
-          <a:chOff x="9910131" y="-777448"/>
-          <a:chExt cx="5634183" cy="2736215"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="13" name="Picture 12">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D91CC11-7CC5-2C76-B0A7-BD3210FE37C1}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill rotWithShape="1">
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect l="47596"/>
-          <a:stretch/>
-        </xdr:blipFill>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="9981715" y="-777448"/>
-            <a:ext cx="5562599" cy="2736215"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-              <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="14" name="Oval 13">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41AA5E2E-1C77-43ED-58B8-B2444B7A8ECA}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E1FDA964-338B-4218-B57F-0A8A356C0F7E}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -972,174 +1100,147 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>48464</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>60353</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>1120407</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>423608</xdr:rowOff>
+      <xdr:colOff>1133475</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>681038</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="Rectangle 14">
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="12" name="Group 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{524EFFD7-C8A8-737F-AEE8-0FF0D8851D9A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{691215EF-95BB-403D-97C7-5970250B762A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10011614" y="4403753"/>
-          <a:ext cx="1071943" cy="363255"/>
+          <a:off x="9715500" y="2651760"/>
+          <a:ext cx="1133475" cy="681038"/>
+          <a:chOff x="9910131" y="-777448"/>
+          <a:chExt cx="5634183" cy="2736215"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="023C61"/>
-        </a:solidFill>
-        <a:ln>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="13" name="Picture 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3D91CC11-7CC5-2C76-B0A7-BD3210FE37C1}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect l="47596"/>
+          <a:stretch/>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="9981715" y="-777448"/>
+            <a:ext cx="5562599" cy="2736215"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
           <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="en-US"/>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
+              <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="14" name="Oval 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{41AA5E2E-1C77-43ED-58B8-B2444B7A8ECA}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9910131" y="-740456"/>
+            <a:ext cx="1234441" cy="594040"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1424940</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>525780</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -1147,7 +1248,7 @@
         <xdr:cNvPr id="2" name="Group 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{578094E4-762B-A83B-4687-FB47562487DC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{578094E4-762B-A83B-4687-FB47562487DC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1155,7 +1256,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9715500" y="6332220"/>
+          <a:off x="9829800" y="7246620"/>
           <a:ext cx="1310640" cy="502920"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="2298700" cy="937260"/>
@@ -1166,7 +1267,7 @@
           <xdr:cNvPr id="3" name="Picture 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D16D060-AB50-2E08-FE30-986B2C828853}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8D16D060-AB50-2E08-FE30-986B2C828853}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1175,7 +1276,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1206,7 +1307,7 @@
           <xdr:cNvPr id="4" name="Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BDEDF53-915E-8688-EC12-51638BECDA0E}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0BDEDF53-915E-8688-EC12-51638BECDA0E}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1257,6 +1358,1564 @@
         </xdr:txBody>
       </xdr:sp>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>22861</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>289560</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1394461</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>861060</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15" descr="C:\Users\User\OneDrive\Pictures\Screenshots\Screenshot 2024-01-24 154028.png"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9624061" y="3855720"/>
+          <a:ext cx="1371600" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>2796540</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>449580</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9669780" y="6065520"/>
+          <a:ext cx="2727960" cy="327660"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>2508250</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>535940</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="19" name="Group 18"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="9715500" y="7772400"/>
+          <a:ext cx="2508250" cy="535940"/>
+          <a:chOff x="0" y="0"/>
+          <a:chExt cx="2508250" cy="535940"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="20" name="Picture 19" descr="C:\Users\User\OneDrive\Pictures\Screenshots\Screenshot 2024-01-24 165354.png"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="2508250" cy="535940"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="21" name="Oval 20"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="674370" y="34290"/>
+            <a:ext cx="1120140" cy="434340"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:endParaRPr lang="en-AU"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>167641</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1998980</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1173481</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="22" name="Group 21"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="9837420" y="9707881"/>
+          <a:ext cx="1877060" cy="1005840"/>
+          <a:chOff x="0" y="0"/>
+          <a:chExt cx="3723005" cy="1412666"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="23" name="Picture 22"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="3723005" cy="1371600"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="24" name="Rectangle 23"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="54754" y="93083"/>
+            <a:ext cx="3646649" cy="1319583"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:endParaRPr lang="en-AU"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>2125980</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>927100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Picture 24"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9616440" y="8557260"/>
+          <a:ext cx="2110740" cy="873760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2240280" cy="1009015"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Picture 27"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect r="10752" b="14499"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9875520" y="12618720"/>
+          <a:ext cx="2240280" cy="1009015"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
+            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>144781</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>2545081</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>1369695</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Picture 28" descr="C:\Users\User\OneDrive\Pictures\Screenshots\Screenshot 2024-01-24 170003.png"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9860281" y="13997940"/>
+          <a:ext cx="2400300" cy="1186815"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>2750820</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>1432560</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="33" name="Group 32"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="9867900" y="15582900"/>
+          <a:ext cx="2598420" cy="1203960"/>
+          <a:chOff x="0" y="0"/>
+          <a:chExt cx="4716780" cy="2034540"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="34" name="Picture 33" descr="C:\Users\User\OneDrive\Pictures\Screenshots\Screenshot 2024-01-24 170018.png"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="4716780" cy="2034540"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="35" name="Oval 34"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2873829" y="1106501"/>
+            <a:ext cx="1444598" cy="829875"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:endParaRPr lang="en-AU"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>1638300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>2880360</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1417320</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="36" name="Group 35"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="9997440" y="16992600"/>
+          <a:ext cx="2598420" cy="1501140"/>
+          <a:chOff x="0" y="0"/>
+          <a:chExt cx="4716780" cy="2034540"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="37" name="Picture 36" descr="C:\Users\User\OneDrive\Pictures\Screenshots\Screenshot 2024-01-24 170018.png"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="4716780" cy="2034540"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="38" name="Oval 37"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2873829" y="1106501"/>
+            <a:ext cx="1444598" cy="829875"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:endParaRPr lang="en-AU"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>3329940</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>1097279</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="39" name="Group 38"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="9837420" y="19705320"/>
+          <a:ext cx="3208020" cy="1043939"/>
+          <a:chOff x="0" y="0"/>
+          <a:chExt cx="5731510" cy="1084410"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="40" name="Picture 39" descr="C:\Users\User\OneDrive\Pictures\Screenshots\Screenshot 2024-01-24 170031.png"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="0" y="23052"/>
+            <a:ext cx="5731510" cy="1056005"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="41" name="Rectangle 40"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="537882" y="0"/>
+            <a:ext cx="381000" cy="1051560"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:endParaRPr lang="en-AU"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="42" name="Rectangle 41"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000">
+            <a:off x="2574151" y="-630090"/>
+            <a:ext cx="502920" cy="2926080"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:endParaRPr lang="en-AU"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>3329940</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>929640</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="43" name="Group 42"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="9837420" y="18707100"/>
+          <a:ext cx="3208020" cy="876300"/>
+          <a:chOff x="0" y="0"/>
+          <a:chExt cx="5731510" cy="1084410"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="44" name="Picture 43" descr="C:\Users\User\OneDrive\Pictures\Screenshots\Screenshot 2024-01-24 170031.png"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="0" y="23052"/>
+            <a:ext cx="5731510" cy="1056005"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="45" name="Rectangle 44"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="537882" y="0"/>
+            <a:ext cx="381000" cy="1051560"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:endParaRPr lang="en-AU"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="46" name="Rectangle 45"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000">
+            <a:off x="2574151" y="-630090"/>
+            <a:ext cx="502920" cy="2926080"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:endParaRPr lang="en-AU"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>3248660</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>1383030</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="Picture 46" descr="C:\Users\User\OneDrive\Pictures\Screenshots\Screenshot 2024-01-24 170133.png"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9822180" y="22448520"/>
+          <a:ext cx="3141980" cy="1283970"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>3263900</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>1375410</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="Picture 48" descr="C:\Users\User\OneDrive\Pictures\Screenshots\Screenshot 2024-01-24 170133.png"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9837420" y="23980140"/>
+          <a:ext cx="3141980" cy="1283970"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>3120390</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>1046480</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="Picture 49"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9806940" y="25466040"/>
+          <a:ext cx="3028950" cy="916940"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>243840</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>3322320</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>1661160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="Picture 50" descr="C:\Users\User\OneDrive\Pictures\Screenshots\Screenshot 2024-01-24 170203.png"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="6913" r="15577"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9768840" y="26837640"/>
+          <a:ext cx="3268980" cy="1417320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>2697480</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>518160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>3177540</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>754380</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="Oval 51"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12412980" y="27111960"/>
+          <a:ext cx="480060" cy="236220"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-AU"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>350520</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1280160</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>1657350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="Rectangle 52"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9845040" y="26944320"/>
+          <a:ext cx="1150620" cy="1306830"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-AU"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1523365</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>1035050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1577340</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>1104900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="Rectangle 54"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11238865" y="27628850"/>
+          <a:ext cx="53975" cy="69850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-AU"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1453515</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>911860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1499234</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>967740</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="Rectangle 55"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11169015" y="27505660"/>
+          <a:ext cx="45719" cy="55880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-AU"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1322705</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>693419</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1371600</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>748664</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="Rectangle 56"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11038205" y="27287219"/>
+          <a:ext cx="48895" cy="55245"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-AU"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1752600</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>1156335</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1940560</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>1307465</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="Rectangle 57"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11468100" y="27750135"/>
+          <a:ext cx="187960" cy="151130"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-AU"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1524,7 +3183,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B6:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1538,13 +3197,13 @@
   </cols>
   <sheetData>
     <row r="6" spans="2:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
+      <c r="B6" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
     </row>
     <row r="7" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
@@ -1602,14 +3261,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7343930E-EB9C-4647-8AF6-D4A56069C559}">
-  <dimension ref="B1:K72"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:P72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1617,997 +3276,1274 @@
     <col min="1" max="1" width="0.88671875" style="14" customWidth="1"/>
     <col min="2" max="2" width="3.88671875" style="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.33203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.88671875" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.21875" style="14" customWidth="1"/>
+    <col min="4" max="4" width="8.5546875" style="14" customWidth="1"/>
+    <col min="5" max="5" width="34.21875" style="16" customWidth="1"/>
     <col min="6" max="6" width="7.33203125" style="13" customWidth="1"/>
     <col min="7" max="7" width="6.5546875" style="13" customWidth="1"/>
     <col min="8" max="8" width="11.109375" style="13" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="26.21875" style="14" customWidth="1"/>
     <col min="10" max="10" width="32.5546875" style="14" customWidth="1"/>
-    <col min="11" max="11" width="21.109375" style="14" customWidth="1"/>
+    <col min="11" max="11" width="49" style="14" customWidth="1"/>
     <col min="12" max="16384" width="9.109375" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="31" t="s">
+    <row r="1" spans="2:16" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="33" t="s">
+      <c r="C2" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="F2" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="G2" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="33" t="s">
+      <c r="K2" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="33" t="s">
+    </row>
+    <row r="3" spans="2:16" ht="72" x14ac:dyDescent="0.3">
+      <c r="B3" s="25">
+        <v>1</v>
+      </c>
+      <c r="C3" s="26">
+        <v>45323</v>
+      </c>
+      <c r="D3" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="34" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="B3" s="26">
-        <v>1</v>
-      </c>
-      <c r="C3" s="27">
+      <c r="E3" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="28">
+        <v>5</v>
+      </c>
+      <c r="G3" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="28"/>
+      <c r="I3" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="29"/>
+    </row>
+    <row r="4" spans="2:16" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B4" s="25">
+        <v>2</v>
+      </c>
+      <c r="C4" s="26">
         <v>45323</v>
       </c>
-      <c r="D3" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="28" t="s">
+      <c r="D4" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="28">
+        <v>4</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="28"/>
+      <c r="I4" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="29">
-        <v>4</v>
-      </c>
-      <c r="G3" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="29"/>
-      <c r="I3" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="J3" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" s="30"/>
-    </row>
-    <row r="4" spans="2:11" ht="72" x14ac:dyDescent="0.3">
-      <c r="B4" s="19">
-        <v>2</v>
-      </c>
-      <c r="C4" s="15">
-        <v>45323</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="17">
-        <v>4</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="17"/>
-      <c r="I4" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" s="20"/>
-    </row>
-    <row r="5" spans="2:11" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="B5" s="19">
+      <c r="K4" s="29"/>
+    </row>
+    <row r="5" spans="2:16" ht="72" x14ac:dyDescent="0.3">
+      <c r="B5" s="25">
         <v>3</v>
       </c>
       <c r="C5" s="15">
         <v>45323</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F5" s="17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H5" s="17"/>
       <c r="I5" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J5" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="K5" s="21"/>
-    </row>
-    <row r="6" spans="2:11" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="B6" s="19">
+        <v>24</v>
+      </c>
+      <c r="K5" s="19"/>
+      <c r="P5" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B6" s="25">
         <v>4</v>
       </c>
       <c r="C6" s="15">
         <v>45323</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F6" s="17">
         <v>5</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H6" s="17"/>
       <c r="I6" s="16" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="J6" s="16" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" spans="2:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B7" s="19">
+    <row r="7" spans="2:16" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B7" s="25">
         <v>5</v>
       </c>
       <c r="C7" s="15">
         <v>45323</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>22</v>
+        <v>11</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>18</v>
       </c>
       <c r="F7" s="17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H7" s="17"/>
       <c r="I7" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J7" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="K7" s="20"/>
-    </row>
-    <row r="8" spans="2:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B8" s="19">
+        <v>19</v>
+      </c>
+      <c r="K7" s="19"/>
+    </row>
+    <row r="8" spans="2:16" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B8" s="25">
         <v>6</v>
       </c>
       <c r="C8" s="15">
         <v>45323</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="F8" s="17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H8" s="17"/>
       <c r="I8" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="J8" s="16"/>
-      <c r="K8" s="20"/>
-    </row>
-    <row r="9" spans="2:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B9" s="19">
+        <v>32</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="19"/>
+    </row>
+    <row r="9" spans="2:16" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B9" s="25">
         <v>7</v>
       </c>
       <c r="C9" s="15">
-        <v>45324</v>
+        <v>45323</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="36" t="s">
-        <v>35</v>
+        <v>27</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>30</v>
       </c>
       <c r="F9" s="17">
         <v>5</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H9" s="17"/>
       <c r="I9" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" s="16"/>
+      <c r="K9" s="19"/>
+    </row>
+    <row r="10" spans="2:16" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B10" s="25">
+        <v>8</v>
+      </c>
+      <c r="C10" s="15">
+        <v>45323</v>
+      </c>
+      <c r="D10" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="J9" s="16"/>
-      <c r="K9" s="20"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B10" s="19"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
+      <c r="E10" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="17">
+        <v>5</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>20</v>
+      </c>
       <c r="H10" s="17"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="20"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B11" s="19"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
+      <c r="I10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="K10" s="19"/>
+    </row>
+    <row r="11" spans="2:16" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B11" s="25">
+        <v>9</v>
+      </c>
+      <c r="C11" s="15">
+        <v>45323</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="17">
+        <v>5</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>20</v>
+      </c>
       <c r="H11" s="17"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="20"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B12" s="19"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
+      <c r="I11" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="J11" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="K11" s="19"/>
+    </row>
+    <row r="12" spans="2:16" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="25">
+        <v>10</v>
+      </c>
+      <c r="C12" s="15">
+        <v>45323</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="17">
+        <v>5</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>20</v>
+      </c>
       <c r="H12" s="17"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="20"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B13" s="19"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
+      <c r="I12" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="J12" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="K12" s="19"/>
+    </row>
+    <row r="13" spans="2:16" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="25">
+        <v>11</v>
+      </c>
+      <c r="C13" s="15">
+        <v>45323</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="17">
+        <v>4</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>20</v>
+      </c>
       <c r="H13" s="17"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="20"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B14" s="19"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
+      <c r="I13" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="J13" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="K13" s="19"/>
+    </row>
+    <row r="14" spans="2:16" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="25">
+        <v>12</v>
+      </c>
+      <c r="C14" s="15">
+        <v>45323</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="17">
+        <v>5</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>20</v>
+      </c>
       <c r="H14" s="17"/>
-      <c r="I14" s="16"/>
+      <c r="I14" s="16" t="s">
+        <v>32</v>
+      </c>
       <c r="J14" s="16"/>
-      <c r="K14" s="20"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B15" s="19"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
+      <c r="K14" s="19"/>
+    </row>
+    <row r="15" spans="2:16" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="25">
+        <v>13</v>
+      </c>
+      <c r="C15" s="15">
+        <v>45323</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
+      <c r="G15" s="17" t="s">
+        <v>20</v>
+      </c>
       <c r="H15" s="17"/>
-      <c r="I15" s="16"/>
+      <c r="I15" s="16" t="s">
+        <v>32</v>
+      </c>
       <c r="J15" s="16"/>
-      <c r="K15" s="20"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B16" s="19"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
+      <c r="K15" s="19"/>
+    </row>
+    <row r="16" spans="2:16" ht="110.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="25">
+        <v>14</v>
+      </c>
+      <c r="C16" s="15">
+        <v>45323</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="17">
+        <v>5</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>20</v>
+      </c>
       <c r="H16" s="17"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="20"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B17" s="19"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
+      <c r="I16" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="J16" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="K16" s="19"/>
+    </row>
+    <row r="17" spans="2:11" ht="121.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="25">
+        <v>15</v>
+      </c>
+      <c r="C17" s="15">
+        <v>45323</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" s="17">
+        <v>5</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>20</v>
+      </c>
       <c r="H17" s="17"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="20"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B18" s="19"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
+      <c r="I17" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="J17" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="K17" s="19"/>
+    </row>
+    <row r="18" spans="2:11" ht="135.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="25">
+        <v>16</v>
+      </c>
+      <c r="C18" s="15">
+        <v>45323</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="17">
+        <v>5</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>20</v>
+      </c>
       <c r="H18" s="17"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="20"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B19" s="19"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
+      <c r="I18" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="J18" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="K18" s="19"/>
+    </row>
+    <row r="19" spans="2:11" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="25">
+        <v>17</v>
+      </c>
+      <c r="C19" s="15">
+        <v>45323</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" s="17">
+        <v>5</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>20</v>
+      </c>
       <c r="H19" s="17"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="20"/>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B20" s="19"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
+      <c r="I19" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="J19" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="K19" s="19"/>
+    </row>
+    <row r="20" spans="2:11" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="25">
+        <v>18</v>
+      </c>
+      <c r="C20" s="15">
+        <v>45323</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>66</v>
+      </c>
       <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
+      <c r="G20" s="17" t="s">
+        <v>20</v>
+      </c>
       <c r="H20" s="17"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="20"/>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B21" s="19"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
+      <c r="I20" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="J20" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="K20" s="19"/>
+    </row>
+    <row r="21" spans="2:11" ht="97.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="25">
+        <v>19</v>
+      </c>
+      <c r="C21" s="15">
+        <v>45323</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="F21" s="17">
+        <v>5</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>20</v>
+      </c>
       <c r="H21" s="17"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="20"/>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B22" s="19"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
+      <c r="I21" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="J21" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="K21" s="19"/>
+    </row>
+    <row r="22" spans="2:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B22" s="25">
+        <v>20</v>
+      </c>
+      <c r="C22" s="15">
+        <v>45323</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F22" s="17">
+        <v>5</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>20</v>
+      </c>
       <c r="H22" s="17"/>
-      <c r="I22" s="16"/>
+      <c r="I22" s="16" t="s">
+        <v>70</v>
+      </c>
       <c r="J22" s="16"/>
-      <c r="K22" s="20"/>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B23" s="19"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
+      <c r="K22" s="19"/>
+    </row>
+    <row r="23" spans="2:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B23" s="25">
+        <v>21</v>
+      </c>
+      <c r="C23" s="15">
+        <v>45323</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F23" s="17">
+        <v>5</v>
+      </c>
+      <c r="G23" s="17" t="s">
+        <v>20</v>
+      </c>
       <c r="H23" s="17"/>
-      <c r="I23" s="16"/>
+      <c r="I23" s="16" t="s">
+        <v>70</v>
+      </c>
       <c r="J23" s="16"/>
-      <c r="K23" s="20"/>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B24" s="19"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
+      <c r="K23" s="19"/>
+    </row>
+    <row r="24" spans="2:11" ht="121.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="25">
+        <v>22</v>
+      </c>
+      <c r="C24" s="15">
+        <v>45323</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="F24" s="17">
+        <v>5</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>20</v>
+      </c>
       <c r="H24" s="17"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="20"/>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B25" s="19"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
+      <c r="I24" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="J24" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="K24" s="19"/>
+    </row>
+    <row r="25" spans="2:11" ht="114" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="25">
+        <v>23</v>
+      </c>
+      <c r="C25" s="15">
+        <v>45323</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="F25" s="17">
+        <v>5</v>
+      </c>
+      <c r="G25" s="17" t="s">
+        <v>20</v>
+      </c>
       <c r="H25" s="17"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="20"/>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B26" s="19"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
+      <c r="I25" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="J25" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="K25" s="19"/>
+    </row>
+    <row r="26" spans="2:11" ht="99" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="25">
+        <v>24</v>
+      </c>
+      <c r="C26" s="15">
+        <v>45323</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="E26" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="F26" s="17">
+        <v>4</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>20</v>
+      </c>
       <c r="H26" s="17"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="20"/>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B27" s="19"/>
-      <c r="C27" s="16"/>
+      <c r="I26" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="J26" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="K26" s="19"/>
+    </row>
+    <row r="27" spans="2:11" ht="142.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="25">
+        <v>25</v>
+      </c>
+      <c r="C27" s="15">
+        <v>45323</v>
+      </c>
       <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
+      <c r="E27" s="16" t="s">
+        <v>87</v>
+      </c>
       <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
+      <c r="G27" s="17" t="s">
+        <v>20</v>
+      </c>
       <c r="H27" s="17"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="20"/>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B28" s="19"/>
-      <c r="C28" s="16"/>
+      <c r="I27" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="J27" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="K27" s="19"/>
+    </row>
+    <row r="28" spans="2:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="B28" s="25">
+        <v>26</v>
+      </c>
+      <c r="C28" s="15">
+        <v>45323</v>
+      </c>
       <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
+      <c r="E28" s="16" t="s">
+        <v>89</v>
+      </c>
       <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
+      <c r="G28" s="17" t="s">
+        <v>20</v>
+      </c>
       <c r="H28" s="17"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="20"/>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B29" s="19"/>
-      <c r="C29" s="16"/>
+      <c r="I28" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="J28" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="K28" s="19"/>
+    </row>
+    <row r="29" spans="2:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="B29" s="25">
+        <v>27</v>
+      </c>
+      <c r="C29" s="15">
+        <v>45323</v>
+      </c>
       <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
+      <c r="E29" s="16" t="s">
+        <v>88</v>
+      </c>
       <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
+      <c r="G29" s="17" t="s">
+        <v>20</v>
+      </c>
       <c r="H29" s="17"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="20"/>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B30" s="19"/>
-      <c r="C30" s="16"/>
+      <c r="I29" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="J29" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="K29" s="19"/>
+    </row>
+    <row r="30" spans="2:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="B30" s="18"/>
+      <c r="C30" s="15">
+        <v>45323</v>
+      </c>
       <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
+      <c r="E30" s="16" t="s">
+        <v>90</v>
+      </c>
       <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
+      <c r="G30" s="17" t="s">
+        <v>20</v>
+      </c>
       <c r="H30" s="17"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="20"/>
+      <c r="I30" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="J30" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="K30" s="19"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B31" s="19"/>
+      <c r="B31" s="18"/>
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
+      <c r="E31" s="37" t="s">
+        <v>85</v>
+      </c>
       <c r="F31" s="17"/>
       <c r="G31" s="17"/>
       <c r="H31" s="17"/>
       <c r="I31" s="16"/>
       <c r="J31" s="16"/>
-      <c r="K31" s="20"/>
+      <c r="K31" s="19"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B32" s="19"/>
+      <c r="B32" s="18"/>
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
+      <c r="E32" s="36"/>
       <c r="F32" s="17"/>
       <c r="G32" s="17"/>
       <c r="H32" s="17"/>
       <c r="I32" s="16"/>
       <c r="J32" s="16"/>
-      <c r="K32" s="20"/>
+      <c r="K32" s="19"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B33" s="19"/>
+      <c r="B33" s="18"/>
       <c r="C33" s="16"/>
       <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
+      <c r="E33" s="37" t="s">
+        <v>86</v>
+      </c>
       <c r="F33" s="17"/>
       <c r="G33" s="17"/>
       <c r="H33" s="17"/>
       <c r="I33" s="16"/>
       <c r="J33" s="16"/>
-      <c r="K33" s="20"/>
+      <c r="K33" s="19"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B34" s="19"/>
+      <c r="B34" s="18"/>
       <c r="C34" s="16"/>
       <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
+      <c r="E34" s="36"/>
       <c r="F34" s="17"/>
       <c r="G34" s="17"/>
       <c r="H34" s="17"/>
       <c r="I34" s="16"/>
       <c r="J34" s="16"/>
-      <c r="K34" s="20"/>
+      <c r="K34" s="19"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B35" s="19"/>
+      <c r="B35" s="18"/>
       <c r="C35" s="16"/>
       <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
       <c r="F35" s="17"/>
       <c r="G35" s="17"/>
       <c r="H35" s="17"/>
       <c r="I35" s="16"/>
       <c r="J35" s="16"/>
-      <c r="K35" s="20"/>
+      <c r="K35" s="19"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B36" s="19"/>
+      <c r="B36" s="18"/>
       <c r="C36" s="16"/>
       <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
       <c r="F36" s="17"/>
       <c r="G36" s="17"/>
       <c r="H36" s="17"/>
       <c r="I36" s="16"/>
       <c r="J36" s="16"/>
-      <c r="K36" s="20"/>
+      <c r="K36" s="19"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B37" s="19"/>
+      <c r="B37" s="18"/>
       <c r="C37" s="16"/>
       <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
       <c r="F37" s="17"/>
       <c r="G37" s="17"/>
       <c r="H37" s="17"/>
       <c r="I37" s="16"/>
       <c r="J37" s="16"/>
-      <c r="K37" s="20"/>
+      <c r="K37" s="19"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B38" s="19"/>
+      <c r="B38" s="18"/>
       <c r="C38" s="16"/>
       <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
       <c r="F38" s="17"/>
       <c r="G38" s="17"/>
       <c r="H38" s="17"/>
       <c r="I38" s="16"/>
       <c r="J38" s="16"/>
-      <c r="K38" s="20"/>
+      <c r="K38" s="19"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B39" s="19"/>
+      <c r="B39" s="18"/>
       <c r="C39" s="16"/>
       <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
       <c r="F39" s="17"/>
       <c r="G39" s="17"/>
       <c r="H39" s="17"/>
       <c r="I39" s="16"/>
       <c r="J39" s="16"/>
-      <c r="K39" s="20"/>
+      <c r="K39" s="19"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B40" s="19"/>
+      <c r="B40" s="18"/>
       <c r="C40" s="16"/>
       <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
       <c r="F40" s="17"/>
       <c r="G40" s="17"/>
       <c r="H40" s="17"/>
       <c r="I40" s="16"/>
       <c r="J40" s="16"/>
-      <c r="K40" s="20"/>
+      <c r="K40" s="19"/>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B41" s="19"/>
+      <c r="B41" s="18"/>
       <c r="C41" s="16"/>
       <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
       <c r="F41" s="17"/>
       <c r="G41" s="17"/>
       <c r="H41" s="17"/>
       <c r="I41" s="16"/>
       <c r="J41" s="16"/>
-      <c r="K41" s="20"/>
+      <c r="K41" s="19"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B42" s="19"/>
+      <c r="B42" s="18"/>
       <c r="C42" s="16"/>
       <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
       <c r="F42" s="17"/>
       <c r="G42" s="17"/>
       <c r="H42" s="17"/>
       <c r="I42" s="16"/>
       <c r="J42" s="16"/>
-      <c r="K42" s="20"/>
+      <c r="K42" s="19"/>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B43" s="19"/>
+      <c r="B43" s="18"/>
       <c r="C43" s="16"/>
       <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
       <c r="F43" s="17"/>
       <c r="G43" s="17"/>
       <c r="H43" s="17"/>
       <c r="I43" s="16"/>
       <c r="J43" s="16"/>
-      <c r="K43" s="20"/>
+      <c r="K43" s="19"/>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B44" s="19"/>
+      <c r="B44" s="18"/>
       <c r="C44" s="16"/>
       <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
       <c r="F44" s="17"/>
       <c r="G44" s="17"/>
       <c r="H44" s="17"/>
       <c r="I44" s="16"/>
       <c r="J44" s="16"/>
-      <c r="K44" s="20"/>
+      <c r="K44" s="19"/>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B45" s="19"/>
+      <c r="B45" s="18"/>
       <c r="C45" s="16"/>
       <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
       <c r="F45" s="17"/>
       <c r="G45" s="17"/>
       <c r="H45" s="17"/>
       <c r="I45" s="16"/>
       <c r="J45" s="16"/>
-      <c r="K45" s="20"/>
+      <c r="K45" s="19"/>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B46" s="19"/>
+      <c r="B46" s="18"/>
       <c r="C46" s="16"/>
       <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
       <c r="F46" s="17"/>
       <c r="G46" s="17"/>
       <c r="H46" s="17"/>
       <c r="I46" s="16"/>
       <c r="J46" s="16"/>
-      <c r="K46" s="20"/>
+      <c r="K46" s="19"/>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B47" s="19"/>
+      <c r="B47" s="18"/>
       <c r="C47" s="16"/>
       <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
       <c r="F47" s="17"/>
       <c r="G47" s="17"/>
       <c r="H47" s="17"/>
       <c r="I47" s="16"/>
       <c r="J47" s="16"/>
-      <c r="K47" s="20"/>
+      <c r="K47" s="19"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B48" s="19"/>
+      <c r="B48" s="18"/>
       <c r="C48" s="16"/>
       <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
       <c r="F48" s="17"/>
       <c r="G48" s="17"/>
       <c r="H48" s="17"/>
       <c r="I48" s="16"/>
       <c r="J48" s="16"/>
-      <c r="K48" s="20"/>
+      <c r="K48" s="19"/>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B49" s="19"/>
+      <c r="B49" s="18"/>
       <c r="C49" s="16"/>
       <c r="D49" s="16"/>
-      <c r="E49" s="16"/>
       <c r="F49" s="17"/>
       <c r="G49" s="17"/>
       <c r="H49" s="17"/>
       <c r="I49" s="16"/>
       <c r="J49" s="16"/>
-      <c r="K49" s="20"/>
+      <c r="K49" s="19"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B50" s="19"/>
+      <c r="B50" s="18"/>
       <c r="C50" s="16"/>
       <c r="D50" s="16"/>
-      <c r="E50" s="16"/>
       <c r="F50" s="17"/>
       <c r="G50" s="17"/>
       <c r="H50" s="17"/>
       <c r="I50" s="16"/>
       <c r="J50" s="16"/>
-      <c r="K50" s="20"/>
+      <c r="K50" s="19"/>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B51" s="19"/>
+      <c r="B51" s="18"/>
       <c r="C51" s="16"/>
       <c r="D51" s="16"/>
-      <c r="E51" s="16"/>
       <c r="F51" s="17"/>
       <c r="G51" s="17"/>
       <c r="H51" s="17"/>
       <c r="I51" s="16"/>
       <c r="J51" s="16"/>
-      <c r="K51" s="20"/>
+      <c r="K51" s="19"/>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B52" s="19"/>
+      <c r="B52" s="18"/>
       <c r="C52" s="16"/>
       <c r="D52" s="16"/>
-      <c r="E52" s="16"/>
       <c r="F52" s="17"/>
       <c r="G52" s="17"/>
       <c r="H52" s="17"/>
       <c r="I52" s="16"/>
       <c r="J52" s="16"/>
-      <c r="K52" s="20"/>
+      <c r="K52" s="19"/>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B53" s="19"/>
+      <c r="B53" s="18"/>
       <c r="C53" s="16"/>
       <c r="D53" s="16"/>
-      <c r="E53" s="16"/>
       <c r="F53" s="17"/>
       <c r="G53" s="17"/>
       <c r="H53" s="17"/>
       <c r="I53" s="16"/>
       <c r="J53" s="16"/>
-      <c r="K53" s="20"/>
+      <c r="K53" s="19"/>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B54" s="19"/>
+      <c r="B54" s="18"/>
       <c r="C54" s="16"/>
       <c r="D54" s="16"/>
-      <c r="E54" s="16"/>
       <c r="F54" s="17"/>
       <c r="G54" s="17"/>
       <c r="H54" s="17"/>
       <c r="I54" s="16"/>
       <c r="J54" s="16"/>
-      <c r="K54" s="20"/>
+      <c r="K54" s="19"/>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B55" s="19"/>
+      <c r="B55" s="18"/>
       <c r="C55" s="16"/>
       <c r="D55" s="16"/>
-      <c r="E55" s="16"/>
       <c r="F55" s="17"/>
       <c r="G55" s="17"/>
       <c r="H55" s="17"/>
       <c r="I55" s="16"/>
       <c r="J55" s="16"/>
-      <c r="K55" s="20"/>
+      <c r="K55" s="19"/>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B56" s="19"/>
+      <c r="B56" s="18"/>
       <c r="C56" s="16"/>
       <c r="D56" s="16"/>
-      <c r="E56" s="16"/>
       <c r="F56" s="17"/>
       <c r="G56" s="17"/>
       <c r="H56" s="17"/>
       <c r="I56" s="16"/>
       <c r="J56" s="16"/>
-      <c r="K56" s="20"/>
+      <c r="K56" s="19"/>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B57" s="19"/>
+      <c r="B57" s="18"/>
       <c r="C57" s="16"/>
       <c r="D57" s="16"/>
-      <c r="E57" s="16"/>
       <c r="F57" s="17"/>
       <c r="G57" s="17"/>
       <c r="H57" s="17"/>
       <c r="I57" s="16"/>
       <c r="J57" s="16"/>
-      <c r="K57" s="20"/>
+      <c r="K57" s="19"/>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B58" s="19"/>
+      <c r="B58" s="18"/>
       <c r="C58" s="16"/>
       <c r="D58" s="16"/>
-      <c r="E58" s="16"/>
       <c r="F58" s="17"/>
       <c r="G58" s="17"/>
       <c r="H58" s="17"/>
       <c r="I58" s="16"/>
       <c r="J58" s="16"/>
-      <c r="K58" s="20"/>
+      <c r="K58" s="19"/>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B59" s="19"/>
+      <c r="B59" s="18"/>
       <c r="C59" s="16"/>
       <c r="D59" s="16"/>
-      <c r="E59" s="16"/>
       <c r="F59" s="17"/>
       <c r="G59" s="17"/>
       <c r="H59" s="17"/>
       <c r="I59" s="16"/>
       <c r="J59" s="16"/>
-      <c r="K59" s="20"/>
+      <c r="K59" s="19"/>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B60" s="19"/>
+      <c r="B60" s="18"/>
       <c r="C60" s="16"/>
       <c r="D60" s="16"/>
-      <c r="E60" s="16"/>
       <c r="F60" s="17"/>
       <c r="G60" s="17"/>
       <c r="H60" s="17"/>
       <c r="I60" s="16"/>
       <c r="J60" s="16"/>
-      <c r="K60" s="20"/>
+      <c r="K60" s="19"/>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B61" s="19"/>
+      <c r="B61" s="18"/>
       <c r="C61" s="16"/>
       <c r="D61" s="16"/>
-      <c r="E61" s="16"/>
       <c r="F61" s="17"/>
       <c r="G61" s="17"/>
       <c r="H61" s="17"/>
       <c r="I61" s="16"/>
       <c r="J61" s="16"/>
-      <c r="K61" s="20"/>
+      <c r="K61" s="19"/>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B62" s="19"/>
+      <c r="B62" s="18"/>
       <c r="C62" s="16"/>
       <c r="D62" s="16"/>
-      <c r="E62" s="16"/>
       <c r="F62" s="17"/>
       <c r="G62" s="17"/>
       <c r="H62" s="17"/>
       <c r="I62" s="16"/>
       <c r="J62" s="16"/>
-      <c r="K62" s="20"/>
+      <c r="K62" s="19"/>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B63" s="19"/>
+      <c r="B63" s="18"/>
       <c r="C63" s="16"/>
       <c r="D63" s="16"/>
-      <c r="E63" s="16"/>
       <c r="F63" s="17"/>
       <c r="G63" s="17"/>
       <c r="H63" s="17"/>
       <c r="I63" s="16"/>
       <c r="J63" s="16"/>
-      <c r="K63" s="20"/>
+      <c r="K63" s="19"/>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B64" s="19"/>
+      <c r="B64" s="18"/>
       <c r="C64" s="16"/>
       <c r="D64" s="16"/>
-      <c r="E64" s="16"/>
       <c r="F64" s="17"/>
       <c r="G64" s="17"/>
       <c r="H64" s="17"/>
       <c r="I64" s="16"/>
       <c r="J64" s="16"/>
-      <c r="K64" s="20"/>
+      <c r="K64" s="19"/>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B65" s="19"/>
+      <c r="B65" s="18"/>
       <c r="C65" s="16"/>
       <c r="D65" s="16"/>
-      <c r="E65" s="16"/>
       <c r="F65" s="17"/>
       <c r="G65" s="17"/>
       <c r="H65" s="17"/>
       <c r="I65" s="16"/>
       <c r="J65" s="16"/>
-      <c r="K65" s="20"/>
+      <c r="K65" s="19"/>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B66" s="19"/>
+      <c r="B66" s="18"/>
       <c r="C66" s="16"/>
       <c r="D66" s="16"/>
-      <c r="E66" s="16"/>
       <c r="F66" s="17"/>
       <c r="G66" s="17"/>
       <c r="H66" s="17"/>
       <c r="I66" s="16"/>
       <c r="J66" s="16"/>
-      <c r="K66" s="20"/>
+      <c r="K66" s="19"/>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B67" s="19"/>
+      <c r="B67" s="18"/>
       <c r="C67" s="16"/>
       <c r="D67" s="16"/>
-      <c r="E67" s="16"/>
       <c r="F67" s="17"/>
       <c r="G67" s="17"/>
       <c r="H67" s="17"/>
       <c r="I67" s="16"/>
       <c r="J67" s="16"/>
-      <c r="K67" s="20"/>
+      <c r="K67" s="19"/>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B68" s="19"/>
+      <c r="B68" s="18"/>
       <c r="C68" s="16"/>
       <c r="D68" s="16"/>
-      <c r="E68" s="16"/>
       <c r="F68" s="17"/>
       <c r="G68" s="17"/>
       <c r="H68" s="17"/>
       <c r="I68" s="16"/>
       <c r="J68" s="16"/>
-      <c r="K68" s="20"/>
+      <c r="K68" s="19"/>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B69" s="19"/>
+      <c r="B69" s="18"/>
       <c r="C69" s="16"/>
       <c r="D69" s="16"/>
-      <c r="E69" s="16"/>
       <c r="F69" s="17"/>
       <c r="G69" s="17"/>
       <c r="H69" s="17"/>
       <c r="I69" s="16"/>
       <c r="J69" s="16"/>
-      <c r="K69" s="20"/>
+      <c r="K69" s="19"/>
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B70" s="19"/>
+      <c r="B70" s="18"/>
       <c r="C70" s="16"/>
       <c r="D70" s="16"/>
-      <c r="E70" s="16"/>
       <c r="F70" s="17"/>
       <c r="G70" s="17"/>
       <c r="H70" s="17"/>
       <c r="I70" s="16"/>
       <c r="J70" s="16"/>
-      <c r="K70" s="20"/>
+      <c r="K70" s="19"/>
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B71" s="19"/>
+      <c r="B71" s="18"/>
       <c r="C71" s="16"/>
       <c r="D71" s="16"/>
-      <c r="E71" s="16"/>
       <c r="F71" s="17"/>
       <c r="G71" s="17"/>
       <c r="H71" s="17"/>
       <c r="I71" s="16"/>
       <c r="J71" s="16"/>
-      <c r="K71" s="20"/>
+      <c r="K71" s="19"/>
     </row>
     <row r="72" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="22"/>
-      <c r="C72" s="23"/>
-      <c r="D72" s="23"/>
-      <c r="E72" s="23"/>
-      <c r="F72" s="24"/>
-      <c r="G72" s="24"/>
-      <c r="H72" s="24"/>
-      <c r="I72" s="23"/>
-      <c r="J72" s="23"/>
-      <c r="K72" s="25"/>
+      <c r="B72" s="21"/>
+      <c r="C72" s="22"/>
+      <c r="D72" s="22"/>
+      <c r="F72" s="23"/>
+      <c r="G72" s="23"/>
+      <c r="H72" s="23"/>
+      <c r="I72" s="22"/>
+      <c r="J72" s="22"/>
+      <c r="K72" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Offline/BusinessManagement/Website/Antech/UAT-DefectReport-BusinessSite.xlsx
+++ b/Offline/BusinessManagement/Website/Antech/UAT-DefectReport-BusinessSite.xlsx
@@ -1,20 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\Website\Antech\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C2E568E-E9CD-4272-87CC-0358CE0EFF12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
     <sheet name="UAT Defects" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'UAT Defects'!$B$2:$K$39</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="103">
   <si>
     <t>Created By</t>
   </si>
@@ -79,13 +83,6 @@
   </si>
   <si>
     <t>Reproduction Steps</t>
-  </si>
-  <si>
-    <t>Menu names to be changed. We need only four pages:
-1&gt; Home
-2&gt; Featured Courses
-3&gt; Free Materials
-4&gt; Contact Us</t>
   </si>
   <si>
     <t>Anodiam's business site needs only four of the following pages:
@@ -460,9 +457,6 @@
     <t xml:space="preserve">    </t>
   </si>
   <si>
-    <t xml:space="preserve">     </t>
-  </si>
-  <si>
     <t>a) Delete the quick link part which is marked in red square as it is not required.
 b) Give icons for address, mobile no. and email ID. Also turn them into hyperlinks so that clicking on them leads to the respective stuff.</t>
   </si>
@@ -477,13 +471,59 @@
   <si>
     <t>g) No need for the map icon at bottom marked in red 
 h) Adress should be: N-1/25 Patuli, Kolkata - 700094</t>
+  </si>
+  <si>
+    <t>Closed</t>
+  </si>
+  <si>
+    <t>Menu names to be changed. We need only four pages:
+1&gt; Home
+2&gt; Courses
+3&gt; Free Materials
+4&gt; Contact Us</t>
+  </si>
+  <si>
+    <t>Download App Button upper portion of Home page</t>
+  </si>
+  <si>
+    <t>All Pages -Cards</t>
+  </si>
+  <si>
+    <t>Horizontal Margin 5px for texts of all cards to be incorporated</t>
+  </si>
+  <si>
+    <t>Vission, mission</t>
+  </si>
+  <si>
+    <t>Footer</t>
+  </si>
+  <si>
+    <t>Whatsapp link should go to Anodiam (9073700094) NOT 1120anirban@gmail.com</t>
+  </si>
+  <si>
+    <t>Courses</t>
+  </si>
+  <si>
+    <t>Include cards for all courses at classplus app of Anodiam</t>
+  </si>
+  <si>
+    <t>Create Thumbnails for all courses at classplus app of Anodiam</t>
+  </si>
+  <si>
+    <t>Free Materials</t>
+  </si>
+  <si>
+    <t>Should contain link to Anodiam's Youtube chanel (Create the dummy chanel with BG Image, Cover Pic etc) Create 1 dummy video of Saurav and 1 of Anirban</t>
+  </si>
+  <si>
+    <t>Youtube link to Anodiam's Youtube chanel (Create the dummy chanel with BG Image, Cover Pic etc) Create 1 dummy video of Saurav and 1 of Anirban</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -537,6 +577,14 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -790,7 +838,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -867,17 +915,23 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="9"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="15" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="9"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="9"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -916,7 +970,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4FD10B47-8A67-0A09-E879-0CAFC5970319}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -982,7 +1036,7 @@
         <xdr:cNvPr id="5" name="Group 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3656FDDC-39E1-5271-2857-FFFD5A461694}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -990,8 +1044,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9715500" y="1400178"/>
-          <a:ext cx="1133475" cy="681038"/>
+          <a:off x="10110788" y="452438"/>
+          <a:ext cx="1133475" cy="0"/>
           <a:chOff x="9910131" y="-777448"/>
           <a:chExt cx="5634183" cy="2736215"/>
         </a:xfrm>
@@ -1001,7 +1055,7 @@
           <xdr:cNvPr id="6" name="Picture 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8B0429C0-2B97-4BDF-A457-F7E6F3C3D15A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1044,7 +1098,7 @@
           <xdr:cNvPr id="7" name="Oval 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E1FDA964-338B-4218-B57F-0A8A356C0F7E}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1115,7 +1169,7 @@
         <xdr:cNvPr id="12" name="Group 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{691215EF-95BB-403D-97C7-5970250B762A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1123,7 +1177,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9715500" y="2651760"/>
+          <a:off x="10110788" y="452438"/>
           <a:ext cx="1133475" cy="681038"/>
           <a:chOff x="9910131" y="-777448"/>
           <a:chExt cx="5634183" cy="2736215"/>
@@ -1134,7 +1188,7 @@
           <xdr:cNvPr id="13" name="Picture 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3D91CC11-7CC5-2C76-B0A7-BD3210FE37C1}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1177,7 +1231,7 @@
           <xdr:cNvPr id="14" name="Oval 13">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{41AA5E2E-1C77-43ED-58B8-B2444B7A8ECA}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1248,7 +1302,7 @@
         <xdr:cNvPr id="2" name="Group 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{578094E4-762B-A83B-4687-FB47562487DC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1256,8 +1310,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9829800" y="7246620"/>
-          <a:ext cx="1310640" cy="502920"/>
+          <a:off x="10225088" y="1357313"/>
+          <a:ext cx="1310640" cy="0"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="2298700" cy="937260"/>
         </a:xfrm>
@@ -1267,7 +1321,7 @@
           <xdr:cNvPr id="3" name="Picture 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8D16D060-AB50-2E08-FE30-986B2C828853}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1307,7 +1361,7 @@
           <xdr:cNvPr id="4" name="Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0BDEDF53-915E-8688-EC12-51638BECDA0E}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1370,12 +1424,18 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1394461</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>861060</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>571500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Picture 15" descr="C:\Users\User\OneDrive\Pictures\Screenshots\Screenshot 2024-01-24 154028.png"/>
+        <xdr:cNvPr id="16" name="Picture 15" descr="C:\Users\User\OneDrive\Pictures\Screenshots\Screenshot 2024-01-24 154028.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1417,12 +1477,18 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>2796540</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>449580</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>327660</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Picture 16"/>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1464,20 +1530,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="19" name="Group 18"/>
+        <xdr:cNvPr id="19" name="Group 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9715500" y="7772400"/>
-          <a:ext cx="2508250" cy="535940"/>
+          <a:off x="10110788" y="1357313"/>
+          <a:ext cx="2508250" cy="0"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="2508250" cy="535940"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="20" name="Picture 19" descr="C:\Users\User\OneDrive\Pictures\Screenshots\Screenshot 2024-01-24 165354.png"/>
+          <xdr:cNvPr id="20" name="Picture 19" descr="C:\Users\User\OneDrive\Pictures\Screenshots\Screenshot 2024-01-24 165354.png">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -1511,7 +1589,13 @@
       </xdr:pic>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="21" name="Oval 20"/>
+          <xdr:cNvPr id="21" name="Oval 20">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1576,20 +1660,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="22" name="Group 21"/>
+        <xdr:cNvPr id="22" name="Group 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9837420" y="9707881"/>
-          <a:ext cx="1877060" cy="1005840"/>
+          <a:off x="10232708" y="1357313"/>
+          <a:ext cx="1877060" cy="0"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="3723005" cy="1412666"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="23" name="Picture 22"/>
+          <xdr:cNvPr id="23" name="Picture 22">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -1618,7 +1714,13 @@
       </xdr:pic>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="24" name="Rectangle 23"/>
+          <xdr:cNvPr id="24" name="Rectangle 23">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1678,12 +1780,18 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>2125980</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>927100</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>83185</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="Picture 24"/>
+        <xdr:cNvPr id="25" name="Picture 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1725,7 +1833,13 @@
     <xdr:ext cx="2240280" cy="1009015"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="Picture 27"/>
+        <xdr:cNvPr id="28" name="Picture 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
@@ -1770,12 +1884,18 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>2545081</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>1369695</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>100965</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="Picture 28" descr="C:\Users\User\OneDrive\Pictures\Screenshots\Screenshot 2024-01-24 170003.png"/>
+        <xdr:cNvPr id="29" name="Picture 28" descr="C:\Users\User\OneDrive\Pictures\Screenshots\Screenshot 2024-01-24 170003.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1822,20 +1942,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="33" name="Group 32"/>
+        <xdr:cNvPr id="33" name="Group 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9867900" y="15582900"/>
-          <a:ext cx="2598420" cy="1203960"/>
+          <a:off x="10263188" y="2147888"/>
+          <a:ext cx="2598420" cy="0"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="4716780" cy="2034540"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="34" name="Picture 33" descr="C:\Users\User\OneDrive\Pictures\Screenshots\Screenshot 2024-01-24 170018.png"/>
+          <xdr:cNvPr id="34" name="Picture 33" descr="C:\Users\User\OneDrive\Pictures\Screenshots\Screenshot 2024-01-24 170018.png">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000022000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -1869,7 +2001,13 @@
       </xdr:pic>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="35" name="Oval 34"/>
+          <xdr:cNvPr id="35" name="Oval 34">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000023000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1934,20 +2072,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="36" name="Group 35"/>
+        <xdr:cNvPr id="36" name="Group 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000024000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9997440" y="16992600"/>
-          <a:ext cx="2598420" cy="1501140"/>
+          <a:off x="10392728" y="2147888"/>
+          <a:ext cx="2598420" cy="0"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="4716780" cy="2034540"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="37" name="Picture 36" descr="C:\Users\User\OneDrive\Pictures\Screenshots\Screenshot 2024-01-24 170018.png"/>
+          <xdr:cNvPr id="37" name="Picture 36" descr="C:\Users\User\OneDrive\Pictures\Screenshots\Screenshot 2024-01-24 170018.png">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000025000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -1981,7 +2131,13 @@
       </xdr:pic>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="38" name="Oval 37"/>
+          <xdr:cNvPr id="38" name="Oval 37">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000026000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2046,20 +2202,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="39" name="Group 38"/>
+        <xdr:cNvPr id="39" name="Group 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000027000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9837420" y="19705320"/>
-          <a:ext cx="3208020" cy="1043939"/>
+          <a:off x="10232708" y="2147888"/>
+          <a:ext cx="3208020" cy="0"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="5731510" cy="1084410"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="40" name="Picture 39" descr="C:\Users\User\OneDrive\Pictures\Screenshots\Screenshot 2024-01-24 170031.png"/>
+          <xdr:cNvPr id="40" name="Picture 39" descr="C:\Users\User\OneDrive\Pictures\Screenshots\Screenshot 2024-01-24 170031.png">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000028000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -2093,7 +2261,13 @@
       </xdr:pic>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="41" name="Rectangle 40"/>
+          <xdr:cNvPr id="41" name="Rectangle 40">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000029000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2142,7 +2316,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="42" name="Rectangle 41"/>
+          <xdr:cNvPr id="42" name="Rectangle 41">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2207,26 +2387,38 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="43" name="Group 42"/>
+        <xdr:cNvPr id="43" name="Group 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9837420" y="18707100"/>
-          <a:ext cx="3208020" cy="876300"/>
+          <a:off x="10232708" y="2147888"/>
+          <a:ext cx="3208020" cy="0"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="5731510" cy="1084410"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="44" name="Picture 43" descr="C:\Users\User\OneDrive\Pictures\Screenshots\Screenshot 2024-01-24 170031.png"/>
+          <xdr:cNvPr id="44" name="Picture 43" descr="C:\Users\User\OneDrive\Pictures\Screenshots\Screenshot 2024-01-24 170031.png">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2254,7 +2446,13 @@
       </xdr:pic>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="45" name="Rectangle 44"/>
+          <xdr:cNvPr id="45" name="Rectangle 44">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2303,7 +2501,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="46" name="Rectangle 45"/>
+          <xdr:cNvPr id="46" name="Rectangle 45">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2363,16 +2567,22 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>3248660</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>1383030</xdr:rowOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="47" name="Picture 46" descr="C:\Users\User\OneDrive\Pictures\Screenshots\Screenshot 2024-01-24 170133.png"/>
+        <xdr:cNvPr id="47" name="Picture 46" descr="C:\Users\User\OneDrive\Pictures\Screenshots\Screenshot 2024-01-24 170133.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2410,16 +2620,22 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>3263900</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>1375410</xdr:rowOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="49" name="Picture 48" descr="C:\Users\User\OneDrive\Pictures\Screenshots\Screenshot 2024-01-24 170133.png"/>
+        <xdr:cNvPr id="49" name="Picture 48" descr="C:\Users\User\OneDrive\Pictures\Screenshots\Screenshot 2024-01-24 170133.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000031000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2457,16 +2673,22 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>3120390</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>1046480</xdr:rowOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>193040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="50" name="Picture 49"/>
+        <xdr:cNvPr id="50" name="Picture 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000032000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2499,16 +2721,22 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>3322320</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>1661160</xdr:rowOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>331470</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="51" name="Picture 50" descr="C:\Users\User\OneDrive\Pictures\Screenshots\Screenshot 2024-01-24 170203.png"/>
+        <xdr:cNvPr id="51" name="Picture 50" descr="C:\Users\User\OneDrive\Pictures\Screenshots\Screenshot 2024-01-24 170203.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000033000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2549,7 +2777,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="52" name="Oval 51"/>
+        <xdr:cNvPr id="52" name="Oval 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000034000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2613,7 +2847,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="53" name="Rectangle 52"/>
+        <xdr:cNvPr id="53" name="Rectangle 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000035000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2677,7 +2917,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="55" name="Rectangle 54"/>
+        <xdr:cNvPr id="55" name="Rectangle 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000037000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2741,7 +2987,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="56" name="Rectangle 55"/>
+        <xdr:cNvPr id="56" name="Rectangle 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000038000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2805,7 +3057,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="57" name="Rectangle 56"/>
+        <xdr:cNvPr id="57" name="Rectangle 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000039000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2869,7 +3127,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="58" name="Rectangle 57"/>
+        <xdr:cNvPr id="58" name="Rectangle 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3183,30 +3447,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B6:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-    </row>
-    <row r="7" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" ht="28.5" x14ac:dyDescent="0.85">
+      <c r="B6" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+    </row>
+    <row r="7" spans="2:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3221,7 +3485,7 @@
         <v>45323</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B9" s="8" t="s">
         <v>4</v>
       </c>
@@ -3236,7 +3500,7 @@
         <v>45324</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B10" s="9" t="s">
         <v>2</v>
       </c>
@@ -3261,42 +3525,43 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="B1:P72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M28" sqref="M28"/>
+      <selection pane="bottomRight" activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="0.88671875" style="14" customWidth="1"/>
-    <col min="2" max="2" width="3.88671875" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="0.86328125" style="14" customWidth="1"/>
+    <col min="2" max="2" width="3.86328125" style="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.33203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5546875" style="14" customWidth="1"/>
-    <col min="5" max="5" width="34.21875" style="16" customWidth="1"/>
+    <col min="4" max="4" width="8.53125" style="14" customWidth="1"/>
+    <col min="5" max="5" width="34.19921875" style="16" customWidth="1"/>
     <col min="6" max="6" width="7.33203125" style="13" customWidth="1"/>
-    <col min="7" max="7" width="6.5546875" style="13" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.21875" style="14" customWidth="1"/>
-    <col min="10" max="10" width="32.5546875" style="14" customWidth="1"/>
+    <col min="7" max="7" width="6.53125" style="13" customWidth="1"/>
+    <col min="8" max="8" width="11.1328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.19921875" style="14" customWidth="1"/>
+    <col min="10" max="10" width="32.53125" style="14" customWidth="1"/>
     <col min="11" max="11" width="49" style="14" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="14"/>
+    <col min="12" max="16384" width="9.1328125" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:16" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:16" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="30" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E2" s="32" t="s">
         <v>8</v>
@@ -3320,7 +3585,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="2:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:16" ht="71.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="B3" s="25">
         <v>1</v>
       </c>
@@ -3331,24 +3596,26 @@
         <v>11</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F3" s="28">
         <v>5</v>
       </c>
       <c r="G3" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="28"/>
+        <v>89</v>
+      </c>
+      <c r="H3" s="37">
+        <v>45331</v>
+      </c>
       <c r="I3" s="27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J3" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K3" s="29"/>
     </row>
-    <row r="4" spans="2:16" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:16" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="B4" s="25">
         <v>2</v>
       </c>
@@ -3359,24 +3626,26 @@
         <v>11</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F4" s="28">
         <v>4</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="28"/>
+        <v>89</v>
+      </c>
+      <c r="H4" s="37">
+        <v>45331</v>
+      </c>
       <c r="I4" s="27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J4" s="27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K4" s="29"/>
     </row>
-    <row r="5" spans="2:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:16" ht="71.25" x14ac:dyDescent="0.45">
       <c r="B5" s="25">
         <v>3</v>
       </c>
@@ -3390,24 +3659,24 @@
         <v>15</v>
       </c>
       <c r="F5" s="17">
-        <v>4</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>20</v>
+        <v>2</v>
+      </c>
+      <c r="G5" s="38" t="s">
+        <v>19</v>
       </c>
       <c r="H5" s="17"/>
       <c r="I5" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J5" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K5" s="19"/>
       <c r="P5" s="14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="2:16" ht="100.8" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" ht="99.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="B6" s="25">
         <v>4</v>
       </c>
@@ -3424,18 +3693,20 @@
         <v>5</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="17"/>
+        <v>89</v>
+      </c>
+      <c r="H6" s="37">
+        <v>45331</v>
+      </c>
       <c r="I6" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J6" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" spans="2:16" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:16" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="B7" s="25">
         <v>5</v>
       </c>
@@ -3446,24 +3717,26 @@
         <v>11</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="F7" s="17">
         <v>5</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="17"/>
+        <v>89</v>
+      </c>
+      <c r="H7" s="37">
+        <v>45331</v>
+      </c>
       <c r="I7" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J7" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K7" s="19"/>
     </row>
-    <row r="8" spans="2:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:16" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="B8" s="25">
         <v>6</v>
       </c>
@@ -3474,24 +3747,26 @@
         <v>11</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F8" s="17">
         <v>3</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="17"/>
+        <v>89</v>
+      </c>
+      <c r="H8" s="37">
+        <v>45331</v>
+      </c>
       <c r="I8" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J8" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K8" s="19"/>
     </row>
-    <row r="9" spans="2:16" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:16" ht="57" hidden="1" x14ac:dyDescent="0.45">
       <c r="B9" s="25">
         <v>7</v>
       </c>
@@ -3499,25 +3774,27 @@
         <v>45323</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F9" s="17">
         <v>5</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="17"/>
+        <v>89</v>
+      </c>
+      <c r="H9" s="37">
+        <v>45331</v>
+      </c>
       <c r="I9" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J9" s="16"/>
       <c r="K9" s="19"/>
     </row>
-    <row r="10" spans="2:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:16" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="B10" s="25">
         <v>8</v>
       </c>
@@ -3525,27 +3802,29 @@
         <v>45323</v>
       </c>
       <c r="D10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="16" t="s">
         <v>33</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>34</v>
       </c>
       <c r="F10" s="17">
         <v>5</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="17"/>
+        <v>89</v>
+      </c>
+      <c r="H10" s="37">
+        <v>45331</v>
+      </c>
       <c r="I10" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J10" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K10" s="19"/>
     </row>
-    <row r="11" spans="2:16" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:16" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="B11" s="25">
         <v>9</v>
       </c>
@@ -3553,27 +3832,29 @@
         <v>45323</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F11" s="17">
         <v>5</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="17"/>
+        <v>89</v>
+      </c>
+      <c r="H11" s="37">
+        <v>45331</v>
+      </c>
       <c r="I11" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J11" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K11" s="19"/>
     </row>
-    <row r="12" spans="2:16" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:16" ht="81.599999999999994" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="25">
         <v>10</v>
       </c>
@@ -3581,27 +3862,29 @@
         <v>45323</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F12" s="17">
         <v>5</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" s="17"/>
+        <v>89</v>
+      </c>
+      <c r="H12" s="37">
+        <v>45331</v>
+      </c>
       <c r="I12" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J12" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K12" s="19"/>
     </row>
-    <row r="13" spans="2:16" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:16" ht="103.8" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B13" s="25">
         <v>11</v>
       </c>
@@ -3609,27 +3892,29 @@
         <v>45323</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" s="17">
         <v>4</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="17"/>
+        <v>89</v>
+      </c>
+      <c r="H13" s="37">
+        <v>45331</v>
+      </c>
       <c r="I13" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J13" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K13" s="19"/>
     </row>
-    <row r="14" spans="2:16" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:16" ht="62.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="25">
         <v>12</v>
       </c>
@@ -3637,25 +3922,25 @@
         <v>45323</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F14" s="17">
         <v>5</v>
       </c>
-      <c r="G14" s="17" t="s">
-        <v>20</v>
+      <c r="G14" s="38" t="s">
+        <v>19</v>
       </c>
       <c r="H14" s="17"/>
       <c r="I14" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J14" s="16"/>
       <c r="K14" s="19"/>
     </row>
-    <row r="15" spans="2:16" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:16" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="25">
         <v>13</v>
       </c>
@@ -3663,23 +3948,25 @@
         <v>45323</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F15" s="17"/>
       <c r="G15" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" s="17"/>
+        <v>89</v>
+      </c>
+      <c r="H15" s="37">
+        <v>45331</v>
+      </c>
       <c r="I15" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J15" s="16"/>
       <c r="K15" s="19"/>
     </row>
-    <row r="16" spans="2:16" ht="110.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:16" ht="110.45" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16" s="25">
         <v>14</v>
       </c>
@@ -3687,27 +3974,29 @@
         <v>45323</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F16" s="17">
         <v>5</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H16" s="17"/>
+        <v>89</v>
+      </c>
+      <c r="H16" s="37">
+        <v>45331</v>
+      </c>
       <c r="I16" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="J16" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="J16" s="16" t="s">
-        <v>52</v>
-      </c>
       <c r="K16" s="19"/>
     </row>
-    <row r="17" spans="2:11" ht="121.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:11" ht="121.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B17" s="25">
         <v>15</v>
       </c>
@@ -3715,27 +4004,29 @@
         <v>45323</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F17" s="17">
         <v>5</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H17" s="17"/>
+        <v>89</v>
+      </c>
+      <c r="H17" s="37">
+        <v>45331</v>
+      </c>
       <c r="I17" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J17" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K17" s="19"/>
     </row>
-    <row r="18" spans="2:11" ht="135.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:11" ht="135.6" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B18" s="25">
         <v>16</v>
       </c>
@@ -3743,27 +4034,29 @@
         <v>45323</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F18" s="17">
         <v>5</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H18" s="17"/>
+        <v>89</v>
+      </c>
+      <c r="H18" s="37">
+        <v>45331</v>
+      </c>
       <c r="I18" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J18" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K18" s="19"/>
     </row>
-    <row r="19" spans="2:11" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:11" ht="124.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B19" s="25">
         <v>17</v>
       </c>
@@ -3771,27 +4064,29 @@
         <v>45323</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F19" s="17">
         <v>5</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H19" s="17"/>
+        <v>89</v>
+      </c>
+      <c r="H19" s="37">
+        <v>45331</v>
+      </c>
       <c r="I19" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J19" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K19" s="19"/>
     </row>
-    <row r="20" spans="2:11" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:11" ht="78.599999999999994" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B20" s="25">
         <v>18</v>
       </c>
@@ -3799,25 +4094,27 @@
         <v>45323</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F20" s="17"/>
       <c r="G20" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H20" s="17"/>
+        <v>89</v>
+      </c>
+      <c r="H20" s="37">
+        <v>45331</v>
+      </c>
       <c r="I20" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J20" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K20" s="19"/>
     </row>
-    <row r="21" spans="2:11" ht="97.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:11" ht="97.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B21" s="25">
         <v>19</v>
       </c>
@@ -3825,27 +4122,29 @@
         <v>45323</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F21" s="17">
         <v>5</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H21" s="17"/>
+        <v>89</v>
+      </c>
+      <c r="H21" s="37">
+        <v>45331</v>
+      </c>
       <c r="I21" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J21" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K21" s="19"/>
     </row>
-    <row r="22" spans="2:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:11" ht="57" hidden="1" x14ac:dyDescent="0.45">
       <c r="B22" s="25">
         <v>20</v>
       </c>
@@ -3853,25 +4152,27 @@
         <v>45323</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F22" s="17">
         <v>5</v>
       </c>
       <c r="G22" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H22" s="17"/>
+        <v>89</v>
+      </c>
+      <c r="H22" s="37">
+        <v>45331</v>
+      </c>
       <c r="I22" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J22" s="16"/>
       <c r="K22" s="19"/>
     </row>
-    <row r="23" spans="2:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:11" ht="57" x14ac:dyDescent="0.45">
       <c r="B23" s="25">
         <v>21</v>
       </c>
@@ -3879,25 +4180,25 @@
         <v>45323</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F23" s="17">
         <v>5</v>
       </c>
-      <c r="G23" s="17" t="s">
-        <v>20</v>
+      <c r="G23" s="38" t="s">
+        <v>19</v>
       </c>
       <c r="H23" s="17"/>
       <c r="I23" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J23" s="16"/>
       <c r="K23" s="19"/>
     </row>
-    <row r="24" spans="2:11" ht="121.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:11" ht="121.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B24" s="25">
         <v>22</v>
       </c>
@@ -3905,27 +4206,29 @@
         <v>45323</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F24" s="17">
         <v>5</v>
       </c>
-      <c r="G24" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H24" s="17"/>
+      <c r="G24" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="H24" s="37">
+        <v>45331</v>
+      </c>
       <c r="I24" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J24" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K24" s="19"/>
     </row>
-    <row r="25" spans="2:11" ht="114" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:11" ht="114" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B25" s="25">
         <v>23</v>
       </c>
@@ -3933,27 +4236,29 @@
         <v>45323</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F25" s="17">
         <v>5</v>
       </c>
-      <c r="G25" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H25" s="17"/>
+      <c r="G25" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="H25" s="37">
+        <v>45331</v>
+      </c>
       <c r="I25" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J25" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K25" s="19"/>
     </row>
-    <row r="26" spans="2:11" ht="99" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:11" ht="99" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B26" s="25">
         <v>24</v>
       </c>
@@ -3961,27 +4266,29 @@
         <v>45323</v>
       </c>
       <c r="D26" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="E26" s="34" t="s">
         <v>79</v>
-      </c>
-      <c r="E26" s="35" t="s">
-        <v>80</v>
       </c>
       <c r="F26" s="17">
         <v>4</v>
       </c>
-      <c r="G26" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H26" s="17"/>
+      <c r="G26" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="H26" s="37">
+        <v>45331</v>
+      </c>
       <c r="I26" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J26" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K26" s="19"/>
     </row>
-    <row r="27" spans="2:11" ht="142.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:11" ht="142.80000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B27" s="25">
         <v>25</v>
       </c>
@@ -3990,22 +4297,24 @@
       </c>
       <c r="D27" s="16"/>
       <c r="E27" s="16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F27" s="17"/>
-      <c r="G27" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H27" s="17"/>
+      <c r="G27" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="H27" s="37">
+        <v>45331</v>
+      </c>
       <c r="I27" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J27" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K27" s="19"/>
     </row>
-    <row r="28" spans="2:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:11" ht="71.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="B28" s="25">
         <v>26</v>
       </c>
@@ -4014,22 +4323,24 @@
       </c>
       <c r="D28" s="16"/>
       <c r="E28" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="F28" s="17"/>
+      <c r="G28" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H28" s="17"/>
+      <c r="H28" s="37">
+        <v>45331</v>
+      </c>
       <c r="I28" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J28" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K28" s="19"/>
     </row>
-    <row r="29" spans="2:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:11" ht="71.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="B29" s="25">
         <v>27</v>
       </c>
@@ -4038,151 +4349,238 @@
       </c>
       <c r="D29" s="16"/>
       <c r="E29" s="16" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F29" s="17"/>
-      <c r="G29" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H29" s="17"/>
+      <c r="G29" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="H29" s="37">
+        <v>45331</v>
+      </c>
       <c r="I29" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J29" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K29" s="19"/>
     </row>
-    <row r="30" spans="2:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:11" ht="71.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="B30" s="18"/>
       <c r="C30" s="15">
         <v>45323</v>
       </c>
       <c r="D30" s="16"/>
       <c r="E30" s="16" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F30" s="17"/>
-      <c r="G30" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H30" s="17"/>
+      <c r="G30" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="H30" s="37">
+        <v>45331</v>
+      </c>
       <c r="I30" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J30" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K30" s="19"/>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="B31" s="18"/>
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
-      <c r="E31" s="37" t="s">
-        <v>85</v>
+      <c r="E31" s="35" t="s">
+        <v>84</v>
       </c>
       <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
+      <c r="G31" s="38"/>
       <c r="H31" s="17"/>
       <c r="I31" s="16"/>
       <c r="J31" s="16"/>
       <c r="K31" s="19"/>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:11" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B32" s="18"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
+      <c r="C32" s="15">
+        <v>45331</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E32" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="F32" s="17">
+        <v>5</v>
+      </c>
+      <c r="G32" s="38" t="s">
+        <v>19</v>
+      </c>
       <c r="H32" s="17"/>
       <c r="I32" s="16"/>
       <c r="J32" s="16"/>
       <c r="K32" s="19"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:11" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B33" s="18"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="37" t="s">
-        <v>86</v>
-      </c>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
+      <c r="C33" s="15">
+        <v>45331</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="E33" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="F33" s="17">
+        <v>5</v>
+      </c>
+      <c r="G33" s="38" t="s">
+        <v>19</v>
+      </c>
       <c r="H33" s="17"/>
       <c r="I33" s="16"/>
       <c r="J33" s="16"/>
       <c r="K33" s="19"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:11" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B34" s="18"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
+      <c r="C34" s="15">
+        <v>45331</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E34" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="F34" s="17">
+        <v>4</v>
+      </c>
+      <c r="G34" s="38" t="s">
+        <v>19</v>
+      </c>
       <c r="H34" s="17"/>
       <c r="I34" s="16"/>
       <c r="J34" s="16"/>
       <c r="K34" s="19"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:11" ht="57" x14ac:dyDescent="0.45">
       <c r="B35" s="18"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
+      <c r="C35" s="15">
+        <v>45331</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="F35" s="17">
+        <v>3</v>
+      </c>
+      <c r="G35" s="38" t="s">
+        <v>19</v>
+      </c>
       <c r="H35" s="17"/>
       <c r="I35" s="16"/>
       <c r="J35" s="16"/>
       <c r="K35" s="19"/>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:11" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="B36" s="18"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
+      <c r="C36" s="15">
+        <v>45331</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F36" s="17">
+        <v>3</v>
+      </c>
+      <c r="G36" s="38" t="s">
+        <v>89</v>
+      </c>
       <c r="H36" s="17"/>
       <c r="I36" s="16"/>
       <c r="J36" s="16"/>
       <c r="K36" s="19"/>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:11" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B37" s="18"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
+      <c r="C37" s="15">
+        <v>45331</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="F37" s="17">
+        <v>5</v>
+      </c>
+      <c r="G37" s="38" t="s">
+        <v>19</v>
+      </c>
       <c r="H37" s="17"/>
       <c r="I37" s="16"/>
       <c r="J37" s="16"/>
       <c r="K37" s="19"/>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:11" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B38" s="18"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
+      <c r="C38" s="15">
+        <v>45331</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="F38" s="17">
+        <v>5</v>
+      </c>
+      <c r="G38" s="38" t="s">
+        <v>19</v>
+      </c>
       <c r="H38" s="17"/>
       <c r="I38" s="16"/>
       <c r="J38" s="16"/>
       <c r="K38" s="19"/>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:11" ht="57" x14ac:dyDescent="0.45">
       <c r="B39" s="18"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
+      <c r="C39" s="15">
+        <v>45331</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="E39" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="F39" s="17">
+        <v>5</v>
+      </c>
+      <c r="G39" s="38" t="s">
+        <v>19</v>
+      </c>
       <c r="H39" s="17"/>
       <c r="I39" s="16"/>
       <c r="J39" s="16"/>
       <c r="K39" s="19"/>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B40" s="18"/>
       <c r="C40" s="16"/>
       <c r="D40" s="16"/>
@@ -4193,7 +4591,7 @@
       <c r="J40" s="16"/>
       <c r="K40" s="19"/>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B41" s="18"/>
       <c r="C41" s="16"/>
       <c r="D41" s="16"/>
@@ -4204,7 +4602,7 @@
       <c r="J41" s="16"/>
       <c r="K41" s="19"/>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B42" s="18"/>
       <c r="C42" s="16"/>
       <c r="D42" s="16"/>
@@ -4215,7 +4613,7 @@
       <c r="J42" s="16"/>
       <c r="K42" s="19"/>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B43" s="18"/>
       <c r="C43" s="16"/>
       <c r="D43" s="16"/>
@@ -4226,7 +4624,7 @@
       <c r="J43" s="16"/>
       <c r="K43" s="19"/>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B44" s="18"/>
       <c r="C44" s="16"/>
       <c r="D44" s="16"/>
@@ -4237,7 +4635,7 @@
       <c r="J44" s="16"/>
       <c r="K44" s="19"/>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B45" s="18"/>
       <c r="C45" s="16"/>
       <c r="D45" s="16"/>
@@ -4248,7 +4646,7 @@
       <c r="J45" s="16"/>
       <c r="K45" s="19"/>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B46" s="18"/>
       <c r="C46" s="16"/>
       <c r="D46" s="16"/>
@@ -4259,7 +4657,7 @@
       <c r="J46" s="16"/>
       <c r="K46" s="19"/>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B47" s="18"/>
       <c r="C47" s="16"/>
       <c r="D47" s="16"/>
@@ -4270,7 +4668,7 @@
       <c r="J47" s="16"/>
       <c r="K47" s="19"/>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B48" s="18"/>
       <c r="C48" s="16"/>
       <c r="D48" s="16"/>
@@ -4281,7 +4679,7 @@
       <c r="J48" s="16"/>
       <c r="K48" s="19"/>
     </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B49" s="18"/>
       <c r="C49" s="16"/>
       <c r="D49" s="16"/>
@@ -4292,7 +4690,7 @@
       <c r="J49" s="16"/>
       <c r="K49" s="19"/>
     </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B50" s="18"/>
       <c r="C50" s="16"/>
       <c r="D50" s="16"/>
@@ -4303,7 +4701,7 @@
       <c r="J50" s="16"/>
       <c r="K50" s="19"/>
     </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B51" s="18"/>
       <c r="C51" s="16"/>
       <c r="D51" s="16"/>
@@ -4314,7 +4712,7 @@
       <c r="J51" s="16"/>
       <c r="K51" s="19"/>
     </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B52" s="18"/>
       <c r="C52" s="16"/>
       <c r="D52" s="16"/>
@@ -4325,7 +4723,7 @@
       <c r="J52" s="16"/>
       <c r="K52" s="19"/>
     </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B53" s="18"/>
       <c r="C53" s="16"/>
       <c r="D53" s="16"/>
@@ -4336,7 +4734,7 @@
       <c r="J53" s="16"/>
       <c r="K53" s="19"/>
     </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B54" s="18"/>
       <c r="C54" s="16"/>
       <c r="D54" s="16"/>
@@ -4347,7 +4745,7 @@
       <c r="J54" s="16"/>
       <c r="K54" s="19"/>
     </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B55" s="18"/>
       <c r="C55" s="16"/>
       <c r="D55" s="16"/>
@@ -4358,7 +4756,7 @@
       <c r="J55" s="16"/>
       <c r="K55" s="19"/>
     </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B56" s="18"/>
       <c r="C56" s="16"/>
       <c r="D56" s="16"/>
@@ -4369,7 +4767,7 @@
       <c r="J56" s="16"/>
       <c r="K56" s="19"/>
     </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B57" s="18"/>
       <c r="C57" s="16"/>
       <c r="D57" s="16"/>
@@ -4380,7 +4778,7 @@
       <c r="J57" s="16"/>
       <c r="K57" s="19"/>
     </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B58" s="18"/>
       <c r="C58" s="16"/>
       <c r="D58" s="16"/>
@@ -4391,7 +4789,7 @@
       <c r="J58" s="16"/>
       <c r="K58" s="19"/>
     </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B59" s="18"/>
       <c r="C59" s="16"/>
       <c r="D59" s="16"/>
@@ -4402,7 +4800,7 @@
       <c r="J59" s="16"/>
       <c r="K59" s="19"/>
     </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B60" s="18"/>
       <c r="C60" s="16"/>
       <c r="D60" s="16"/>
@@ -4413,7 +4811,7 @@
       <c r="J60" s="16"/>
       <c r="K60" s="19"/>
     </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B61" s="18"/>
       <c r="C61" s="16"/>
       <c r="D61" s="16"/>
@@ -4424,7 +4822,7 @@
       <c r="J61" s="16"/>
       <c r="K61" s="19"/>
     </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B62" s="18"/>
       <c r="C62" s="16"/>
       <c r="D62" s="16"/>
@@ -4435,7 +4833,7 @@
       <c r="J62" s="16"/>
       <c r="K62" s="19"/>
     </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B63" s="18"/>
       <c r="C63" s="16"/>
       <c r="D63" s="16"/>
@@ -4446,7 +4844,7 @@
       <c r="J63" s="16"/>
       <c r="K63" s="19"/>
     </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B64" s="18"/>
       <c r="C64" s="16"/>
       <c r="D64" s="16"/>
@@ -4457,7 +4855,7 @@
       <c r="J64" s="16"/>
       <c r="K64" s="19"/>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B65" s="18"/>
       <c r="C65" s="16"/>
       <c r="D65" s="16"/>
@@ -4468,7 +4866,7 @@
       <c r="J65" s="16"/>
       <c r="K65" s="19"/>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B66" s="18"/>
       <c r="C66" s="16"/>
       <c r="D66" s="16"/>
@@ -4479,7 +4877,7 @@
       <c r="J66" s="16"/>
       <c r="K66" s="19"/>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B67" s="18"/>
       <c r="C67" s="16"/>
       <c r="D67" s="16"/>
@@ -4490,7 +4888,7 @@
       <c r="J67" s="16"/>
       <c r="K67" s="19"/>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B68" s="18"/>
       <c r="C68" s="16"/>
       <c r="D68" s="16"/>
@@ -4501,7 +4899,7 @@
       <c r="J68" s="16"/>
       <c r="K68" s="19"/>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B69" s="18"/>
       <c r="C69" s="16"/>
       <c r="D69" s="16"/>
@@ -4512,7 +4910,7 @@
       <c r="J69" s="16"/>
       <c r="K69" s="19"/>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B70" s="18"/>
       <c r="C70" s="16"/>
       <c r="D70" s="16"/>
@@ -4523,7 +4921,7 @@
       <c r="J70" s="16"/>
       <c r="K70" s="19"/>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B71" s="18"/>
       <c r="C71" s="16"/>
       <c r="D71" s="16"/>
@@ -4534,7 +4932,7 @@
       <c r="J71" s="16"/>
       <c r="K71" s="19"/>
     </row>
-    <row r="72" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B72" s="21"/>
       <c r="C72" s="22"/>
       <c r="D72" s="22"/>
@@ -4546,6 +4944,13 @@
       <c r="K72" s="24"/>
     </row>
   </sheetData>
+  <autoFilter ref="B2:K39" xr:uid="{00000000-0001-0000-0100-000000000000}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="Open"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/Offline/BusinessManagement/Website/Antech/UAT-DefectReport-BusinessSite.xlsx
+++ b/Offline/BusinessManagement/Website/Antech/UAT-DefectReport-BusinessSite.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\Website\Antech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C2E568E-E9CD-4272-87CC-0358CE0EFF12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C06A1DD3-CCA7-4D33-9D94-C5F27E779EAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -921,9 +921,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="9"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="15" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -932,6 +929,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1044,8 +1044,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10110788" y="452438"/>
-          <a:ext cx="1133475" cy="0"/>
+          <a:off x="9715500" y="1400178"/>
+          <a:ext cx="1133475" cy="681038"/>
           <a:chOff x="9910131" y="-777448"/>
           <a:chExt cx="5634183" cy="2736215"/>
         </a:xfrm>
@@ -1177,7 +1177,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10110788" y="452438"/>
+          <a:off x="10957560" y="457200"/>
           <a:ext cx="1133475" cy="681038"/>
           <a:chOff x="9910131" y="-777448"/>
           <a:chExt cx="5634183" cy="2736215"/>
@@ -1310,8 +1310,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10225088" y="1357313"/>
-          <a:ext cx="1310640" cy="0"/>
+          <a:off x="9829800" y="7246620"/>
+          <a:ext cx="1310640" cy="502920"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="2298700" cy="937260"/>
         </a:xfrm>
@@ -1541,8 +1541,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10110788" y="1357313"/>
-          <a:ext cx="2508250" cy="0"/>
+          <a:off x="9715500" y="7772400"/>
+          <a:ext cx="2508250" cy="535940"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="2508250" cy="535940"/>
         </a:xfrm>
@@ -1671,8 +1671,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10232708" y="1357313"/>
-          <a:ext cx="1877060" cy="0"/>
+          <a:off x="9837420" y="9707881"/>
+          <a:ext cx="1877060" cy="1005840"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="3723005" cy="1412666"/>
         </a:xfrm>
@@ -1953,8 +1953,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10263188" y="2147888"/>
-          <a:ext cx="2598420" cy="0"/>
+          <a:off x="9867900" y="15582900"/>
+          <a:ext cx="2598420" cy="1203960"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="4716780" cy="2034540"/>
         </a:xfrm>
@@ -2083,8 +2083,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10392728" y="2147888"/>
-          <a:ext cx="2598420" cy="0"/>
+          <a:off x="9997440" y="16992600"/>
+          <a:ext cx="2598420" cy="1501140"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="4716780" cy="2034540"/>
         </a:xfrm>
@@ -2213,8 +2213,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10232708" y="2147888"/>
-          <a:ext cx="3208020" cy="0"/>
+          <a:off x="9837420" y="19705320"/>
+          <a:ext cx="3208020" cy="1043939"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="5731510" cy="1084410"/>
         </a:xfrm>
@@ -2398,8 +2398,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10232708" y="2147888"/>
-          <a:ext cx="3208020" cy="0"/>
+          <a:off x="9837420" y="18707100"/>
+          <a:ext cx="3208020" cy="876300"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="5731510" cy="1084410"/>
         </a:xfrm>
@@ -3454,23 +3454,23 @@
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:6" ht="28.5" x14ac:dyDescent="0.85">
-      <c r="B6" s="36" t="s">
+    <row r="6" spans="2:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-    </row>
-    <row r="7" spans="2:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+    </row>
+    <row r="7" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3485,7 +3485,7 @@
         <v>45323</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>4</v>
       </c>
@@ -3500,7 +3500,7 @@
         <v>45324</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="9" t="s">
         <v>2</v>
       </c>
@@ -3530,30 +3530,30 @@
   <dimension ref="B1:P72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F39" sqref="F39"/>
+      <selection pane="bottomRight" activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="0.86328125" style="14" customWidth="1"/>
-    <col min="2" max="2" width="3.86328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="0.88671875" style="14" customWidth="1"/>
+    <col min="2" max="2" width="3.88671875" style="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.33203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.53125" style="14" customWidth="1"/>
-    <col min="5" max="5" width="34.19921875" style="16" customWidth="1"/>
+    <col min="4" max="4" width="8.5546875" style="14" customWidth="1"/>
+    <col min="5" max="5" width="52.33203125" style="16" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.33203125" style="13" customWidth="1"/>
-    <col min="7" max="7" width="6.53125" style="13" customWidth="1"/>
-    <col min="8" max="8" width="11.1328125" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.19921875" style="14" customWidth="1"/>
-    <col min="10" max="10" width="32.53125" style="14" customWidth="1"/>
+    <col min="7" max="7" width="6.5546875" style="13" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.21875" style="14" customWidth="1"/>
+    <col min="10" max="10" width="32.5546875" style="14" customWidth="1"/>
     <col min="11" max="11" width="49" style="14" customWidth="1"/>
-    <col min="12" max="16384" width="9.1328125" style="14"/>
+    <col min="12" max="16384" width="9.109375" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="2:16" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:16" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="30" t="s">
         <v>7</v>
       </c>
@@ -3585,7 +3585,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="2:16" ht="71.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:16" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="B3" s="25">
         <v>1</v>
       </c>
@@ -3604,7 +3604,7 @@
       <c r="G3" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="H3" s="37">
+      <c r="H3" s="36">
         <v>45331</v>
       </c>
       <c r="I3" s="27" t="s">
@@ -3615,7 +3615,7 @@
       </c>
       <c r="K3" s="29"/>
     </row>
-    <row r="4" spans="2:16" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:16" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B4" s="25">
         <v>2</v>
       </c>
@@ -3634,7 +3634,7 @@
       <c r="G4" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="H4" s="37">
+      <c r="H4" s="36">
         <v>45331</v>
       </c>
       <c r="I4" s="27" t="s">
@@ -3645,7 +3645,7 @@
       </c>
       <c r="K4" s="29"/>
     </row>
-    <row r="5" spans="2:16" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:16" ht="72" x14ac:dyDescent="0.3">
       <c r="B5" s="25">
         <v>3</v>
       </c>
@@ -3661,7 +3661,7 @@
       <c r="F5" s="17">
         <v>2</v>
       </c>
-      <c r="G5" s="38" t="s">
+      <c r="G5" s="37" t="s">
         <v>19</v>
       </c>
       <c r="H5" s="17"/>
@@ -3676,7 +3676,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="2:16" ht="99.75" hidden="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:16" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B6" s="25">
         <v>4</v>
       </c>
@@ -3695,7 +3695,7 @@
       <c r="G6" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="H6" s="37">
+      <c r="H6" s="36">
         <v>45331</v>
       </c>
       <c r="I6" s="16" t="s">
@@ -3706,7 +3706,7 @@
       </c>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" spans="2:16" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:16" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B7" s="25">
         <v>5</v>
       </c>
@@ -3725,7 +3725,7 @@
       <c r="G7" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="H7" s="37">
+      <c r="H7" s="36">
         <v>45331</v>
       </c>
       <c r="I7" s="16" t="s">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="K7" s="19"/>
     </row>
-    <row r="8" spans="2:16" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:16" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="B8" s="25">
         <v>6</v>
       </c>
@@ -3755,7 +3755,7 @@
       <c r="G8" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="H8" s="37">
+      <c r="H8" s="36">
         <v>45331</v>
       </c>
       <c r="I8" s="16" t="s">
@@ -3766,7 +3766,7 @@
       </c>
       <c r="K8" s="19"/>
     </row>
-    <row r="9" spans="2:16" ht="57" hidden="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:16" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B9" s="25">
         <v>7</v>
       </c>
@@ -3785,7 +3785,7 @@
       <c r="G9" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="H9" s="37">
+      <c r="H9" s="36">
         <v>45331</v>
       </c>
       <c r="I9" s="16" t="s">
@@ -3794,7 +3794,7 @@
       <c r="J9" s="16"/>
       <c r="K9" s="19"/>
     </row>
-    <row r="10" spans="2:16" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:16" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="B10" s="25">
         <v>8</v>
       </c>
@@ -3813,7 +3813,7 @@
       <c r="G10" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="H10" s="37">
+      <c r="H10" s="36">
         <v>45331</v>
       </c>
       <c r="I10" s="16" t="s">
@@ -3824,7 +3824,7 @@
       </c>
       <c r="K10" s="19"/>
     </row>
-    <row r="11" spans="2:16" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:16" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B11" s="25">
         <v>9</v>
       </c>
@@ -3843,7 +3843,7 @@
       <c r="G11" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="H11" s="37">
+      <c r="H11" s="36">
         <v>45331</v>
       </c>
       <c r="I11" s="16" t="s">
@@ -3854,7 +3854,7 @@
       </c>
       <c r="K11" s="19"/>
     </row>
-    <row r="12" spans="2:16" ht="81.599999999999994" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:16" ht="81.599999999999994" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="25">
         <v>10</v>
       </c>
@@ -3873,7 +3873,7 @@
       <c r="G12" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="H12" s="37">
+      <c r="H12" s="36">
         <v>45331</v>
       </c>
       <c r="I12" s="16" t="s">
@@ -3884,7 +3884,7 @@
       </c>
       <c r="K12" s="19"/>
     </row>
-    <row r="13" spans="2:16" ht="103.8" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:16" ht="103.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="25">
         <v>11</v>
       </c>
@@ -3903,7 +3903,7 @@
       <c r="G13" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="H13" s="37">
+      <c r="H13" s="36">
         <v>45331</v>
       </c>
       <c r="I13" s="16" t="s">
@@ -3914,7 +3914,7 @@
       </c>
       <c r="K13" s="19"/>
     </row>
-    <row r="14" spans="2:16" ht="62.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:16" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="25">
         <v>12</v>
       </c>
@@ -3930,7 +3930,7 @@
       <c r="F14" s="17">
         <v>5</v>
       </c>
-      <c r="G14" s="38" t="s">
+      <c r="G14" s="37" t="s">
         <v>19</v>
       </c>
       <c r="H14" s="17"/>
@@ -3940,7 +3940,7 @@
       <c r="J14" s="16"/>
       <c r="K14" s="19"/>
     </row>
-    <row r="15" spans="2:16" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:16" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="25">
         <v>13</v>
       </c>
@@ -3957,7 +3957,7 @@
       <c r="G15" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="H15" s="37">
+      <c r="H15" s="36">
         <v>45331</v>
       </c>
       <c r="I15" s="16" t="s">
@@ -3966,7 +3966,7 @@
       <c r="J15" s="16"/>
       <c r="K15" s="19"/>
     </row>
-    <row r="16" spans="2:16" ht="110.45" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:16" ht="110.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="25">
         <v>14</v>
       </c>
@@ -3985,7 +3985,7 @@
       <c r="G16" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="H16" s="37">
+      <c r="H16" s="36">
         <v>45331</v>
       </c>
       <c r="I16" s="16" t="s">
@@ -3996,7 +3996,7 @@
       </c>
       <c r="K16" s="19"/>
     </row>
-    <row r="17" spans="2:11" ht="121.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:11" ht="121.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="25">
         <v>15</v>
       </c>
@@ -4015,7 +4015,7 @@
       <c r="G17" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="H17" s="37">
+      <c r="H17" s="36">
         <v>45331</v>
       </c>
       <c r="I17" s="16" t="s">
@@ -4026,7 +4026,7 @@
       </c>
       <c r="K17" s="19"/>
     </row>
-    <row r="18" spans="2:11" ht="135.6" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:11" ht="135.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="25">
         <v>16</v>
       </c>
@@ -4045,7 +4045,7 @@
       <c r="G18" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="H18" s="37">
+      <c r="H18" s="36">
         <v>45331</v>
       </c>
       <c r="I18" s="16" t="s">
@@ -4056,7 +4056,7 @@
       </c>
       <c r="K18" s="19"/>
     </row>
-    <row r="19" spans="2:11" ht="124.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:11" ht="124.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="25">
         <v>17</v>
       </c>
@@ -4075,7 +4075,7 @@
       <c r="G19" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="H19" s="37">
+      <c r="H19" s="36">
         <v>45331</v>
       </c>
       <c r="I19" s="16" t="s">
@@ -4086,7 +4086,7 @@
       </c>
       <c r="K19" s="19"/>
     </row>
-    <row r="20" spans="2:11" ht="78.599999999999994" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:11" ht="78.599999999999994" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="25">
         <v>18</v>
       </c>
@@ -4103,7 +4103,7 @@
       <c r="G20" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="H20" s="37">
+      <c r="H20" s="36">
         <v>45331</v>
       </c>
       <c r="I20" s="16" t="s">
@@ -4114,7 +4114,7 @@
       </c>
       <c r="K20" s="19"/>
     </row>
-    <row r="21" spans="2:11" ht="97.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:11" ht="97.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="25">
         <v>19</v>
       </c>
@@ -4133,7 +4133,7 @@
       <c r="G21" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="H21" s="37">
+      <c r="H21" s="36">
         <v>45331</v>
       </c>
       <c r="I21" s="16" t="s">
@@ -4144,7 +4144,7 @@
       </c>
       <c r="K21" s="19"/>
     </row>
-    <row r="22" spans="2:11" ht="57" hidden="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:11" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B22" s="25">
         <v>20</v>
       </c>
@@ -4163,7 +4163,7 @@
       <c r="G22" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="H22" s="37">
+      <c r="H22" s="36">
         <v>45331</v>
       </c>
       <c r="I22" s="16" t="s">
@@ -4172,7 +4172,7 @@
       <c r="J22" s="16"/>
       <c r="K22" s="19"/>
     </row>
-    <row r="23" spans="2:11" ht="57" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B23" s="25">
         <v>21</v>
       </c>
@@ -4188,7 +4188,7 @@
       <c r="F23" s="17">
         <v>5</v>
       </c>
-      <c r="G23" s="38" t="s">
+      <c r="G23" s="37" t="s">
         <v>19</v>
       </c>
       <c r="H23" s="17"/>
@@ -4198,7 +4198,7 @@
       <c r="J23" s="16"/>
       <c r="K23" s="19"/>
     </row>
-    <row r="24" spans="2:11" ht="121.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:11" ht="121.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="25">
         <v>22</v>
       </c>
@@ -4214,10 +4214,10 @@
       <c r="F24" s="17">
         <v>5</v>
       </c>
-      <c r="G24" s="38" t="s">
+      <c r="G24" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="H24" s="37">
+      <c r="H24" s="36">
         <v>45331</v>
       </c>
       <c r="I24" s="16" t="s">
@@ -4228,7 +4228,7 @@
       </c>
       <c r="K24" s="19"/>
     </row>
-    <row r="25" spans="2:11" ht="114" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:11" ht="114" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="25">
         <v>23</v>
       </c>
@@ -4244,10 +4244,10 @@
       <c r="F25" s="17">
         <v>5</v>
       </c>
-      <c r="G25" s="38" t="s">
+      <c r="G25" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="H25" s="37">
+      <c r="H25" s="36">
         <v>45331</v>
       </c>
       <c r="I25" s="16" t="s">
@@ -4258,7 +4258,7 @@
       </c>
       <c r="K25" s="19"/>
     </row>
-    <row r="26" spans="2:11" ht="99" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:11" ht="99" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="25">
         <v>24</v>
       </c>
@@ -4274,10 +4274,10 @@
       <c r="F26" s="17">
         <v>4</v>
       </c>
-      <c r="G26" s="38" t="s">
+      <c r="G26" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="H26" s="37">
+      <c r="H26" s="36">
         <v>45331</v>
       </c>
       <c r="I26" s="16" t="s">
@@ -4288,7 +4288,7 @@
       </c>
       <c r="K26" s="19"/>
     </row>
-    <row r="27" spans="2:11" ht="142.80000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:11" ht="142.80000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="25">
         <v>25</v>
       </c>
@@ -4300,10 +4300,10 @@
         <v>85</v>
       </c>
       <c r="F27" s="17"/>
-      <c r="G27" s="38" t="s">
+      <c r="G27" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="H27" s="37">
+      <c r="H27" s="36">
         <v>45331</v>
       </c>
       <c r="I27" s="16" t="s">
@@ -4314,7 +4314,7 @@
       </c>
       <c r="K27" s="19"/>
     </row>
-    <row r="28" spans="2:11" ht="71.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:11" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="B28" s="25">
         <v>26</v>
       </c>
@@ -4326,10 +4326,10 @@
         <v>87</v>
       </c>
       <c r="F28" s="17"/>
-      <c r="G28" s="38" t="s">
+      <c r="G28" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="H28" s="37">
+      <c r="H28" s="36">
         <v>45331</v>
       </c>
       <c r="I28" s="16" t="s">
@@ -4340,7 +4340,7 @@
       </c>
       <c r="K28" s="19"/>
     </row>
-    <row r="29" spans="2:11" ht="71.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:11" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="B29" s="25">
         <v>27</v>
       </c>
@@ -4352,10 +4352,10 @@
         <v>86</v>
       </c>
       <c r="F29" s="17"/>
-      <c r="G29" s="38" t="s">
+      <c r="G29" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="H29" s="37">
+      <c r="H29" s="36">
         <v>45331</v>
       </c>
       <c r="I29" s="16" t="s">
@@ -4366,7 +4366,7 @@
       </c>
       <c r="K29" s="19"/>
     </row>
-    <row r="30" spans="2:11" ht="71.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:11" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="B30" s="18"/>
       <c r="C30" s="15">
         <v>45323</v>
@@ -4376,10 +4376,10 @@
         <v>88</v>
       </c>
       <c r="F30" s="17"/>
-      <c r="G30" s="38" t="s">
+      <c r="G30" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="H30" s="37">
+      <c r="H30" s="36">
         <v>45331</v>
       </c>
       <c r="I30" s="16" t="s">
@@ -4390,7 +4390,7 @@
       </c>
       <c r="K30" s="19"/>
     </row>
-    <row r="31" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B31" s="18"/>
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
@@ -4398,13 +4398,13 @@
         <v>84</v>
       </c>
       <c r="F31" s="17"/>
-      <c r="G31" s="38"/>
+      <c r="G31" s="37"/>
       <c r="H31" s="17"/>
       <c r="I31" s="16"/>
       <c r="J31" s="16"/>
       <c r="K31" s="19"/>
     </row>
-    <row r="32" spans="2:11" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B32" s="18"/>
       <c r="C32" s="15">
         <v>45331</v>
@@ -4412,21 +4412,21 @@
       <c r="D32" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E32" s="39" t="s">
+      <c r="E32" s="38" t="s">
         <v>91</v>
       </c>
       <c r="F32" s="17">
         <v>5</v>
       </c>
-      <c r="G32" s="38" t="s">
-        <v>19</v>
+      <c r="G32" s="37" t="s">
+        <v>89</v>
       </c>
       <c r="H32" s="17"/>
       <c r="I32" s="16"/>
       <c r="J32" s="16"/>
       <c r="K32" s="19"/>
     </row>
-    <row r="33" spans="2:11" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B33" s="18"/>
       <c r="C33" s="15">
         <v>45331</v>
@@ -4434,13 +4434,13 @@
       <c r="D33" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="E33" s="39" t="s">
+      <c r="E33" s="38" t="s">
         <v>93</v>
       </c>
       <c r="F33" s="17">
         <v>5</v>
       </c>
-      <c r="G33" s="38" t="s">
+      <c r="G33" s="37" t="s">
         <v>19</v>
       </c>
       <c r="H33" s="17"/>
@@ -4448,7 +4448,7 @@
       <c r="J33" s="16"/>
       <c r="K33" s="19"/>
     </row>
-    <row r="34" spans="2:11" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B34" s="18"/>
       <c r="C34" s="15">
         <v>45331</v>
@@ -4456,21 +4456,21 @@
       <c r="D34" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E34" s="39" t="s">
+      <c r="E34" s="38" t="s">
         <v>94</v>
       </c>
       <c r="F34" s="17">
         <v>4</v>
       </c>
-      <c r="G34" s="38" t="s">
-        <v>19</v>
+      <c r="G34" s="37" t="s">
+        <v>89</v>
       </c>
       <c r="H34" s="17"/>
       <c r="I34" s="16"/>
       <c r="J34" s="16"/>
       <c r="K34" s="19"/>
     </row>
-    <row r="35" spans="2:11" ht="57" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:11" ht="72" x14ac:dyDescent="0.3">
       <c r="B35" s="18"/>
       <c r="C35" s="15">
         <v>45331</v>
@@ -4484,7 +4484,7 @@
       <c r="F35" s="17">
         <v>3</v>
       </c>
-      <c r="G35" s="38" t="s">
+      <c r="G35" s="37" t="s">
         <v>19</v>
       </c>
       <c r="H35" s="17"/>
@@ -4492,7 +4492,7 @@
       <c r="J35" s="16"/>
       <c r="K35" s="19"/>
     </row>
-    <row r="36" spans="2:11" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:11" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="B36" s="18"/>
       <c r="C36" s="15">
         <v>45331</v>
@@ -4506,7 +4506,7 @@
       <c r="F36" s="17">
         <v>3</v>
       </c>
-      <c r="G36" s="38" t="s">
+      <c r="G36" s="37" t="s">
         <v>89</v>
       </c>
       <c r="H36" s="17"/>
@@ -4514,7 +4514,7 @@
       <c r="J36" s="16"/>
       <c r="K36" s="19"/>
     </row>
-    <row r="37" spans="2:11" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B37" s="18"/>
       <c r="C37" s="15">
         <v>45331</v>
@@ -4528,7 +4528,7 @@
       <c r="F37" s="17">
         <v>5</v>
       </c>
-      <c r="G37" s="38" t="s">
+      <c r="G37" s="37" t="s">
         <v>19</v>
       </c>
       <c r="H37" s="17"/>
@@ -4536,7 +4536,7 @@
       <c r="J37" s="16"/>
       <c r="K37" s="19"/>
     </row>
-    <row r="38" spans="2:11" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B38" s="18"/>
       <c r="C38" s="15">
         <v>45331</v>
@@ -4550,7 +4550,7 @@
       <c r="F38" s="17">
         <v>5</v>
       </c>
-      <c r="G38" s="38" t="s">
+      <c r="G38" s="37" t="s">
         <v>19</v>
       </c>
       <c r="H38" s="17"/>
@@ -4558,7 +4558,7 @@
       <c r="J38" s="16"/>
       <c r="K38" s="19"/>
     </row>
-    <row r="39" spans="2:11" ht="57" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:11" ht="72" x14ac:dyDescent="0.3">
       <c r="B39" s="18"/>
       <c r="C39" s="15">
         <v>45331</v>
@@ -4572,7 +4572,7 @@
       <c r="F39" s="17">
         <v>5</v>
       </c>
-      <c r="G39" s="38" t="s">
+      <c r="G39" s="37" t="s">
         <v>19</v>
       </c>
       <c r="H39" s="17"/>
@@ -4580,7 +4580,7 @@
       <c r="J39" s="16"/>
       <c r="K39" s="19"/>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B40" s="18"/>
       <c r="C40" s="16"/>
       <c r="D40" s="16"/>
@@ -4591,7 +4591,7 @@
       <c r="J40" s="16"/>
       <c r="K40" s="19"/>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B41" s="18"/>
       <c r="C41" s="16"/>
       <c r="D41" s="16"/>
@@ -4602,7 +4602,7 @@
       <c r="J41" s="16"/>
       <c r="K41" s="19"/>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B42" s="18"/>
       <c r="C42" s="16"/>
       <c r="D42" s="16"/>
@@ -4613,7 +4613,7 @@
       <c r="J42" s="16"/>
       <c r="K42" s="19"/>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B43" s="18"/>
       <c r="C43" s="16"/>
       <c r="D43" s="16"/>
@@ -4624,7 +4624,7 @@
       <c r="J43" s="16"/>
       <c r="K43" s="19"/>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B44" s="18"/>
       <c r="C44" s="16"/>
       <c r="D44" s="16"/>
@@ -4635,7 +4635,7 @@
       <c r="J44" s="16"/>
       <c r="K44" s="19"/>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B45" s="18"/>
       <c r="C45" s="16"/>
       <c r="D45" s="16"/>
@@ -4646,7 +4646,7 @@
       <c r="J45" s="16"/>
       <c r="K45" s="19"/>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B46" s="18"/>
       <c r="C46" s="16"/>
       <c r="D46" s="16"/>
@@ -4657,7 +4657,7 @@
       <c r="J46" s="16"/>
       <c r="K46" s="19"/>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B47" s="18"/>
       <c r="C47" s="16"/>
       <c r="D47" s="16"/>
@@ -4668,7 +4668,7 @@
       <c r="J47" s="16"/>
       <c r="K47" s="19"/>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B48" s="18"/>
       <c r="C48" s="16"/>
       <c r="D48" s="16"/>
@@ -4679,7 +4679,7 @@
       <c r="J48" s="16"/>
       <c r="K48" s="19"/>
     </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B49" s="18"/>
       <c r="C49" s="16"/>
       <c r="D49" s="16"/>
@@ -4690,7 +4690,7 @@
       <c r="J49" s="16"/>
       <c r="K49" s="19"/>
     </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B50" s="18"/>
       <c r="C50" s="16"/>
       <c r="D50" s="16"/>
@@ -4701,7 +4701,7 @@
       <c r="J50" s="16"/>
       <c r="K50" s="19"/>
     </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B51" s="18"/>
       <c r="C51" s="16"/>
       <c r="D51" s="16"/>
@@ -4712,7 +4712,7 @@
       <c r="J51" s="16"/>
       <c r="K51" s="19"/>
     </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B52" s="18"/>
       <c r="C52" s="16"/>
       <c r="D52" s="16"/>
@@ -4723,7 +4723,7 @@
       <c r="J52" s="16"/>
       <c r="K52" s="19"/>
     </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B53" s="18"/>
       <c r="C53" s="16"/>
       <c r="D53" s="16"/>
@@ -4734,7 +4734,7 @@
       <c r="J53" s="16"/>
       <c r="K53" s="19"/>
     </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B54" s="18"/>
       <c r="C54" s="16"/>
       <c r="D54" s="16"/>
@@ -4745,7 +4745,7 @@
       <c r="J54" s="16"/>
       <c r="K54" s="19"/>
     </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B55" s="18"/>
       <c r="C55" s="16"/>
       <c r="D55" s="16"/>
@@ -4756,7 +4756,7 @@
       <c r="J55" s="16"/>
       <c r="K55" s="19"/>
     </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B56" s="18"/>
       <c r="C56" s="16"/>
       <c r="D56" s="16"/>
@@ -4767,7 +4767,7 @@
       <c r="J56" s="16"/>
       <c r="K56" s="19"/>
     </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="57" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B57" s="18"/>
       <c r="C57" s="16"/>
       <c r="D57" s="16"/>
@@ -4778,7 +4778,7 @@
       <c r="J57" s="16"/>
       <c r="K57" s="19"/>
     </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="58" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B58" s="18"/>
       <c r="C58" s="16"/>
       <c r="D58" s="16"/>
@@ -4789,7 +4789,7 @@
       <c r="J58" s="16"/>
       <c r="K58" s="19"/>
     </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="59" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B59" s="18"/>
       <c r="C59" s="16"/>
       <c r="D59" s="16"/>
@@ -4800,7 +4800,7 @@
       <c r="J59" s="16"/>
       <c r="K59" s="19"/>
     </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="60" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B60" s="18"/>
       <c r="C60" s="16"/>
       <c r="D60" s="16"/>
@@ -4811,7 +4811,7 @@
       <c r="J60" s="16"/>
       <c r="K60" s="19"/>
     </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="61" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B61" s="18"/>
       <c r="C61" s="16"/>
       <c r="D61" s="16"/>
@@ -4822,7 +4822,7 @@
       <c r="J61" s="16"/>
       <c r="K61" s="19"/>
     </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="62" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B62" s="18"/>
       <c r="C62" s="16"/>
       <c r="D62" s="16"/>
@@ -4833,7 +4833,7 @@
       <c r="J62" s="16"/>
       <c r="K62" s="19"/>
     </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="63" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B63" s="18"/>
       <c r="C63" s="16"/>
       <c r="D63" s="16"/>
@@ -4844,7 +4844,7 @@
       <c r="J63" s="16"/>
       <c r="K63" s="19"/>
     </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B64" s="18"/>
       <c r="C64" s="16"/>
       <c r="D64" s="16"/>
@@ -4855,7 +4855,7 @@
       <c r="J64" s="16"/>
       <c r="K64" s="19"/>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B65" s="18"/>
       <c r="C65" s="16"/>
       <c r="D65" s="16"/>
@@ -4866,7 +4866,7 @@
       <c r="J65" s="16"/>
       <c r="K65" s="19"/>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B66" s="18"/>
       <c r="C66" s="16"/>
       <c r="D66" s="16"/>
@@ -4877,7 +4877,7 @@
       <c r="J66" s="16"/>
       <c r="K66" s="19"/>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B67" s="18"/>
       <c r="C67" s="16"/>
       <c r="D67" s="16"/>
@@ -4888,7 +4888,7 @@
       <c r="J67" s="16"/>
       <c r="K67" s="19"/>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B68" s="18"/>
       <c r="C68" s="16"/>
       <c r="D68" s="16"/>
@@ -4899,7 +4899,7 @@
       <c r="J68" s="16"/>
       <c r="K68" s="19"/>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B69" s="18"/>
       <c r="C69" s="16"/>
       <c r="D69" s="16"/>
@@ -4910,7 +4910,7 @@
       <c r="J69" s="16"/>
       <c r="K69" s="19"/>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B70" s="18"/>
       <c r="C70" s="16"/>
       <c r="D70" s="16"/>
@@ -4921,7 +4921,7 @@
       <c r="J70" s="16"/>
       <c r="K70" s="19"/>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B71" s="18"/>
       <c r="C71" s="16"/>
       <c r="D71" s="16"/>
@@ -4932,7 +4932,7 @@
       <c r="J71" s="16"/>
       <c r="K71" s="19"/>
     </row>
-    <row r="72" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="72" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B72" s="21"/>
       <c r="C72" s="22"/>
       <c r="D72" s="22"/>

--- a/Offline/BusinessManagement/Website/Antech/UAT-DefectReport-BusinessSite.xlsx
+++ b/Offline/BusinessManagement/Website/Antech/UAT-DefectReport-BusinessSite.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\Website\Antech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8DEB49F-FC74-4EA8-8F86-BAB6B26EFF16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -76,9 +75,6 @@
     <t>Reproduction Steps</t>
   </si>
   <si>
-    <t>Open</t>
-  </si>
-  <si>
     <t>Reporting Date</t>
   </si>
   <si>
@@ -114,12 +110,15 @@
   </si>
   <si>
     <t>Classplus App</t>
+  </si>
+  <si>
+    <t>Closed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -394,7 +393,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -464,6 +463,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -502,7 +504,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -810,30 +812,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B6:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:6" ht="28.5" x14ac:dyDescent="0.85">
+    <row r="6" spans="2:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="31"/>
       <c r="D6" s="31"/>
       <c r="E6" s="31"/>
       <c r="F6" s="31"/>
     </row>
-    <row r="7" spans="2:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>0</v>
       </c>
@@ -848,7 +850,7 @@
         <v>45323</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>4</v>
       </c>
@@ -863,7 +865,7 @@
         <v>45324</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="9" t="s">
         <v>2</v>
       </c>
@@ -888,42 +890,42 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A7" sqref="A7:XFD7"/>
+      <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="0.86328125" style="14" customWidth="1"/>
-    <col min="2" max="2" width="3.86328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="0.88671875" style="14" customWidth="1"/>
+    <col min="2" max="2" width="3.88671875" style="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.33203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.53125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="8.5546875" style="14" customWidth="1"/>
     <col min="5" max="5" width="52.33203125" style="16" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.33203125" style="13" customWidth="1"/>
-    <col min="7" max="7" width="6.53125" style="13" customWidth="1"/>
-    <col min="8" max="8" width="11.1328125" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.19921875" style="14" customWidth="1"/>
-    <col min="10" max="10" width="32.53125" style="14" customWidth="1"/>
+    <col min="7" max="7" width="6.5546875" style="13" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.21875" style="14" customWidth="1"/>
+    <col min="10" max="10" width="32.5546875" style="14" customWidth="1"/>
     <col min="11" max="11" width="49" style="14" customWidth="1"/>
-    <col min="12" max="16384" width="9.1328125" style="14"/>
+    <col min="12" max="16384" width="9.109375" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="2:11" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:11" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="25" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E2" s="27" t="s">
         <v>8</v>
@@ -947,7 +949,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:11" ht="57" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B3" s="24">
         <v>1</v>
       </c>
@@ -955,25 +957,27 @@
         <v>45323</v>
       </c>
       <c r="D3" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="16" t="s">
         <v>25</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>26</v>
       </c>
       <c r="F3" s="17">
         <v>5</v>
       </c>
       <c r="G3" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="17"/>
+        <v>27</v>
+      </c>
+      <c r="H3" s="32">
+        <v>45343</v>
+      </c>
       <c r="I3" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J3" s="16"/>
       <c r="K3" s="19"/>
     </row>
-    <row r="4" spans="2:11" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B4" s="18">
         <v>2</v>
       </c>
@@ -981,23 +985,25 @@
         <v>45331</v>
       </c>
       <c r="D4" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="30" t="s">
         <v>20</v>
-      </c>
-      <c r="E4" s="30" t="s">
-        <v>21</v>
       </c>
       <c r="F4" s="17">
         <v>5</v>
       </c>
       <c r="G4" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="17"/>
+        <v>27</v>
+      </c>
+      <c r="H4" s="32">
+        <v>45343</v>
+      </c>
       <c r="I4" s="16"/>
       <c r="J4" s="16"/>
       <c r="K4" s="19"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B5" s="18">
         <v>3</v>
       </c>
@@ -1005,23 +1011,25 @@
         <v>45331</v>
       </c>
       <c r="D5" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>23</v>
       </c>
       <c r="F5" s="17">
         <v>5</v>
       </c>
       <c r="G5" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="17"/>
+        <v>27</v>
+      </c>
+      <c r="H5" s="32">
+        <v>45343</v>
+      </c>
       <c r="I5" s="16"/>
       <c r="J5" s="16"/>
       <c r="K5" s="19"/>
     </row>
-    <row r="6" spans="2:11" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B6" s="18">
         <v>4</v>
       </c>
@@ -1029,23 +1037,25 @@
         <v>45331</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F6" s="17">
         <v>5</v>
       </c>
       <c r="G6" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="17"/>
+        <v>27</v>
+      </c>
+      <c r="H6" s="32">
+        <v>45343</v>
+      </c>
       <c r="I6" s="16"/>
       <c r="J6" s="16"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B7" s="18"/>
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
@@ -1056,7 +1066,7 @@
       <c r="J7" s="16"/>
       <c r="K7" s="19"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B8" s="18"/>
       <c r="C8" s="16"/>
       <c r="D8" s="16"/>
@@ -1067,7 +1077,7 @@
       <c r="J8" s="16"/>
       <c r="K8" s="19"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B9" s="18"/>
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
@@ -1078,7 +1088,7 @@
       <c r="J9" s="16"/>
       <c r="K9" s="19"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B10" s="18"/>
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
@@ -1089,7 +1099,7 @@
       <c r="J10" s="16"/>
       <c r="K10" s="19"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B11" s="18"/>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
@@ -1100,7 +1110,7 @@
       <c r="J11" s="16"/>
       <c r="K11" s="19"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B12" s="18"/>
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
@@ -1111,7 +1121,7 @@
       <c r="J12" s="16"/>
       <c r="K12" s="19"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B13" s="18"/>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
@@ -1122,7 +1132,7 @@
       <c r="J13" s="16"/>
       <c r="K13" s="19"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B14" s="18"/>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
@@ -1133,7 +1143,7 @@
       <c r="J14" s="16"/>
       <c r="K14" s="19"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B15" s="18"/>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
@@ -1144,7 +1154,7 @@
       <c r="J15" s="16"/>
       <c r="K15" s="19"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B16" s="18"/>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
@@ -1155,7 +1165,7 @@
       <c r="J16" s="16"/>
       <c r="K16" s="19"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B17" s="18"/>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
@@ -1166,7 +1176,7 @@
       <c r="J17" s="16"/>
       <c r="K17" s="19"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B18" s="18"/>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
@@ -1177,7 +1187,7 @@
       <c r="J18" s="16"/>
       <c r="K18" s="19"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B19" s="18"/>
       <c r="C19" s="16"/>
       <c r="D19" s="16"/>
@@ -1188,7 +1198,7 @@
       <c r="J19" s="16"/>
       <c r="K19" s="19"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B20" s="18"/>
       <c r="C20" s="16"/>
       <c r="D20" s="16"/>
@@ -1199,7 +1209,7 @@
       <c r="J20" s="16"/>
       <c r="K20" s="19"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B21" s="18"/>
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
@@ -1210,7 +1220,7 @@
       <c r="J21" s="16"/>
       <c r="K21" s="19"/>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B22" s="18"/>
       <c r="C22" s="16"/>
       <c r="D22" s="16"/>
@@ -1221,7 +1231,7 @@
       <c r="J22" s="16"/>
       <c r="K22" s="19"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B23" s="18"/>
       <c r="C23" s="16"/>
       <c r="D23" s="16"/>
@@ -1232,7 +1242,7 @@
       <c r="J23" s="16"/>
       <c r="K23" s="19"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B24" s="18"/>
       <c r="C24" s="16"/>
       <c r="D24" s="16"/>
@@ -1243,7 +1253,7 @@
       <c r="J24" s="16"/>
       <c r="K24" s="19"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B25" s="18"/>
       <c r="C25" s="16"/>
       <c r="D25" s="16"/>
@@ -1254,7 +1264,7 @@
       <c r="J25" s="16"/>
       <c r="K25" s="19"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B26" s="18"/>
       <c r="C26" s="16"/>
       <c r="D26" s="16"/>
@@ -1265,7 +1275,7 @@
       <c r="J26" s="16"/>
       <c r="K26" s="19"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B27" s="18"/>
       <c r="C27" s="16"/>
       <c r="D27" s="16"/>
@@ -1276,7 +1286,7 @@
       <c r="J27" s="16"/>
       <c r="K27" s="19"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B28" s="18"/>
       <c r="C28" s="16"/>
       <c r="D28" s="16"/>
@@ -1287,7 +1297,7 @@
       <c r="J28" s="16"/>
       <c r="K28" s="19"/>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B29" s="18"/>
       <c r="C29" s="16"/>
       <c r="D29" s="16"/>
@@ -1298,7 +1308,7 @@
       <c r="J29" s="16"/>
       <c r="K29" s="19"/>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B30" s="18"/>
       <c r="C30" s="16"/>
       <c r="D30" s="16"/>
@@ -1309,7 +1319,7 @@
       <c r="J30" s="16"/>
       <c r="K30" s="19"/>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B31" s="18"/>
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
@@ -1320,7 +1330,7 @@
       <c r="J31" s="16"/>
       <c r="K31" s="19"/>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B32" s="18"/>
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
@@ -1331,7 +1341,7 @@
       <c r="J32" s="16"/>
       <c r="K32" s="19"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B33" s="18"/>
       <c r="C33" s="16"/>
       <c r="D33" s="16"/>
@@ -1342,7 +1352,7 @@
       <c r="J33" s="16"/>
       <c r="K33" s="19"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B34" s="18"/>
       <c r="C34" s="16"/>
       <c r="D34" s="16"/>
@@ -1353,7 +1363,7 @@
       <c r="J34" s="16"/>
       <c r="K34" s="19"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B35" s="18"/>
       <c r="C35" s="16"/>
       <c r="D35" s="16"/>
@@ -1364,7 +1374,7 @@
       <c r="J35" s="16"/>
       <c r="K35" s="19"/>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B36" s="18"/>
       <c r="C36" s="16"/>
       <c r="D36" s="16"/>
@@ -1375,7 +1385,7 @@
       <c r="J36" s="16"/>
       <c r="K36" s="19"/>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B37" s="18"/>
       <c r="C37" s="16"/>
       <c r="D37" s="16"/>
@@ -1386,7 +1396,7 @@
       <c r="J37" s="16"/>
       <c r="K37" s="19"/>
     </row>
-    <row r="38" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="38" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B38" s="20"/>
       <c r="C38" s="21"/>
       <c r="D38" s="21"/>
@@ -1398,7 +1408,12 @@
       <c r="K38" s="23"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:K6" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <autoFilter ref="B2:K6"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576">
+      <formula1>"Open,Closed"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
